--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Projects\theory-of-automata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA82C9A5-5A3A-4B62-841C-F52E80C38BF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B0569-7506-40EC-84E1-0FA20F6562EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D65DE9B-0E5A-4347-A01E-0563EE237CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D65DE9B-0E5A-4347-A01E-0563EE237CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="alph" localSheetId="1">Sheet1!$J$1:$J$10</definedName>
     <definedName name="things">Лист1!$M$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="40">
   <si>
     <t>0_0001</t>
   </si>
@@ -92,12 +94,150 @@
   <si>
     <t>Correction</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>П</t>
+    </r>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>П</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Таблица адресов</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +245,23 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -121,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -209,11 +366,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -227,11 +501,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -250,481 +538,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1040,7 +853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862CDD4F-0BC5-450A-83BD-F44BC52D986E}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1124,43 +939,43 @@
         <v>12</v>
       </c>
       <c r="N2" t="b">
-        <f>SUMPRODUCT(--(C2=things))&gt;0</f>
+        <f t="shared" ref="N2:N31" si="0">SUMPRODUCT(--(C2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="O2" t="b">
-        <f>SUMPRODUCT(--(D2=things))&gt;0</f>
+        <f t="shared" ref="O2:O31" si="1">SUMPRODUCT(--(D2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="P2" t="b">
-        <f>SUMPRODUCT(--(E2=things))&gt;0</f>
+        <f t="shared" ref="P2:P31" si="2">SUMPRODUCT(--(E2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <f>SUMPRODUCT(--(F2=things))&gt;0</f>
+        <f t="shared" ref="Q2:Q31" si="3">SUMPRODUCT(--(F2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="R2" t="b">
-        <f>SUMPRODUCT(--(G2=things))&gt;0</f>
+        <f t="shared" ref="R2:R31" si="4">SUMPRODUCT(--(G2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="S2" t="b">
-        <f>SUMPRODUCT(--(H2=things))&gt;0</f>
+        <f t="shared" ref="S2:S31" si="5">SUMPRODUCT(--(H2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="T2" t="b">
-        <f>SUMPRODUCT(--(I2=things))&gt;0</f>
+        <f t="shared" ref="T2:T31" si="6">SUMPRODUCT(--(I2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="U2" t="b">
-        <f>SUMPRODUCT(--(J2=things))&gt;0</f>
+        <f t="shared" ref="U2:U31" si="7">SUMPRODUCT(--(J2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="V2" t="b">
-        <f>SUMPRODUCT(--(K2=things))&gt;0</f>
+        <f t="shared" ref="V2:V31" si="8">SUMPRODUCT(--(K2=things))&gt;0</f>
         <v>1</v>
       </c>
       <c r="W2" t="b">
-        <f>SUMPRODUCT(--(L2=things))&gt;0</f>
+        <f t="shared" ref="W2:W31" si="9">SUMPRODUCT(--(L2=things))&gt;0</f>
         <v>1</v>
       </c>
     </row>
@@ -1205,43 +1020,43 @@
         <v>13</v>
       </c>
       <c r="N3" t="b">
-        <f>SUMPRODUCT(--(C3=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <f>SUMPRODUCT(--(D3=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <f>SUMPRODUCT(--(E3=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q3" t="b">
-        <f>SUMPRODUCT(--(F3=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R3" t="b">
-        <f>SUMPRODUCT(--(G3=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S3" t="b">
-        <f>SUMPRODUCT(--(H3=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T3" t="b">
-        <f>SUMPRODUCT(--(I3=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U3" t="b">
-        <f>SUMPRODUCT(--(J3=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V3" t="b">
-        <f>SUMPRODUCT(--(K3=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W3" t="b">
-        <f>SUMPRODUCT(--(L3=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1284,43 +1099,43 @@
         <v>14</v>
       </c>
       <c r="N4" t="b">
-        <f>SUMPRODUCT(--(C4=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <f>SUMPRODUCT(--(D4=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P4" t="b">
-        <f>SUMPRODUCT(--(E4=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q4" t="b">
-        <f>SUMPRODUCT(--(F4=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R4" t="b">
-        <f>SUMPRODUCT(--(G4=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S4" t="b">
-        <f>SUMPRODUCT(--(H4=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T4" t="b">
-        <f>SUMPRODUCT(--(I4=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U4" t="b">
-        <f>SUMPRODUCT(--(J4=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V4" t="b">
-        <f>SUMPRODUCT(--(K4=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W4" t="b">
-        <f>SUMPRODUCT(--(L4=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1360,43 +1175,43 @@
         <v>15</v>
       </c>
       <c r="N5" t="b">
-        <f>SUMPRODUCT(--(C5=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <f>SUMPRODUCT(--(D5=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P5" t="b">
-        <f>SUMPRODUCT(--(E5=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q5" t="b">
-        <f>SUMPRODUCT(--(F5=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R5" t="b">
-        <f>SUMPRODUCT(--(G5=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S5" t="b">
-        <f>SUMPRODUCT(--(H5=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T5" t="b">
-        <f>SUMPRODUCT(--(I5=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U5" t="b">
-        <f>SUMPRODUCT(--(J5=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V5" t="b">
-        <f>SUMPRODUCT(--(K5=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W5" t="b">
-        <f>SUMPRODUCT(--(L5=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1438,43 +1253,43 @@
         <v>4</v>
       </c>
       <c r="N6" t="b">
-        <f>SUMPRODUCT(--(C6=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <f>SUMPRODUCT(--(D6=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P6" t="b">
-        <f>SUMPRODUCT(--(E6=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q6" t="b">
-        <f>SUMPRODUCT(--(F6=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R6" t="b">
-        <f>SUMPRODUCT(--(G6=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S6" t="b">
-        <f>SUMPRODUCT(--(H6=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T6" t="b">
-        <f>SUMPRODUCT(--(I6=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U6" t="b">
-        <f>SUMPRODUCT(--(J6=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V6" t="b">
-        <f>SUMPRODUCT(--(K6=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W6" t="b">
-        <f>SUMPRODUCT(--(L6=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1512,43 +1327,43 @@
         <v>5</v>
       </c>
       <c r="N7" t="b">
-        <f>SUMPRODUCT(--(C7=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O7" t="b">
-        <f>SUMPRODUCT(--(D7=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <f>SUMPRODUCT(--(E7=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q7" t="b">
-        <f>SUMPRODUCT(--(F7=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R7" t="b">
-        <f>SUMPRODUCT(--(G7=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S7" t="b">
-        <f>SUMPRODUCT(--(H7=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T7" t="b">
-        <f>SUMPRODUCT(--(I7=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U7" t="b">
-        <f>SUMPRODUCT(--(J7=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V7" t="b">
-        <f>SUMPRODUCT(--(K7=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W7" t="b">
-        <f>SUMPRODUCT(--(L7=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1588,43 +1403,43 @@
         <v>6</v>
       </c>
       <c r="N8" t="b">
-        <f>SUMPRODUCT(--(C8=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <f>SUMPRODUCT(--(D8=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <f>SUMPRODUCT(--(E8=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q8" t="b">
-        <f>SUMPRODUCT(--(F8=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R8" t="b">
-        <f>SUMPRODUCT(--(G8=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <f>SUMPRODUCT(--(H8=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T8" t="b">
-        <f>SUMPRODUCT(--(I8=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U8" t="b">
-        <f>SUMPRODUCT(--(J8=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V8" t="b">
-        <f>SUMPRODUCT(--(K8=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <f>SUMPRODUCT(--(L8=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1666,43 +1481,43 @@
         <v>7</v>
       </c>
       <c r="N9" t="b">
-        <f>SUMPRODUCT(--(C9=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O9" t="b">
-        <f>SUMPRODUCT(--(D9=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <f>SUMPRODUCT(--(E9=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9" t="b">
-        <f>SUMPRODUCT(--(F9=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" t="b">
-        <f>SUMPRODUCT(--(G9=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S9" t="b">
-        <f>SUMPRODUCT(--(H9=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T9" t="b">
-        <f>SUMPRODUCT(--(I9=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U9" t="b">
-        <f>SUMPRODUCT(--(J9=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V9" t="b">
-        <f>SUMPRODUCT(--(K9=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <f>SUMPRODUCT(--(L9=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1738,43 +1553,43 @@
         <v>8</v>
       </c>
       <c r="N10" t="b">
-        <f>SUMPRODUCT(--(C10=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <f>SUMPRODUCT(--(D10=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P10" t="b">
-        <f>SUMPRODUCT(--(E10=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q10" t="b">
-        <f>SUMPRODUCT(--(F10=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R10" t="b">
-        <f>SUMPRODUCT(--(G10=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S10" t="b">
-        <f>SUMPRODUCT(--(H10=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T10" t="b">
-        <f>SUMPRODUCT(--(I10=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U10" t="b">
-        <f>SUMPRODUCT(--(J10=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V10" t="b">
-        <f>SUMPRODUCT(--(K10=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W10" t="b">
-        <f>SUMPRODUCT(--(L10=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -1811,43 +1626,43 @@
         <v>13</v>
       </c>
       <c r="N11" t="b">
-        <f>SUMPRODUCT(--(C11=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O11" t="b">
-        <f>SUMPRODUCT(--(D11=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P11" t="b">
-        <f>SUMPRODUCT(--(E11=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q11" t="b">
-        <f>SUMPRODUCT(--(F11=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R11" t="b">
-        <f>SUMPRODUCT(--(G11=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S11" t="b">
-        <f>SUMPRODUCT(--(H11=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T11" t="b">
-        <f>SUMPRODUCT(--(I11=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U11" t="b">
-        <f>SUMPRODUCT(--(J11=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V11" t="b">
-        <f>SUMPRODUCT(--(K11=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W11" t="b">
-        <f>SUMPRODUCT(--(L11=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1886,43 +1701,43 @@
         <v>13</v>
       </c>
       <c r="N12" t="b">
-        <f>SUMPRODUCT(--(C12=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <f>SUMPRODUCT(--(D12=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <f>SUMPRODUCT(--(E12=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q12" t="b">
-        <f>SUMPRODUCT(--(F12=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R12" t="b">
-        <f>SUMPRODUCT(--(G12=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S12" t="b">
-        <f>SUMPRODUCT(--(H12=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T12" t="b">
-        <f>SUMPRODUCT(--(I12=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U12" t="b">
-        <f>SUMPRODUCT(--(J12=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V12" t="b">
-        <f>SUMPRODUCT(--(K12=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W12" t="b">
-        <f>SUMPRODUCT(--(L12=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1953,43 +1768,43 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="N13" t="b">
-        <f>SUMPRODUCT(--(C13=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O13" t="b">
-        <f>SUMPRODUCT(--(D13=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <f>SUMPRODUCT(--(E13=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q13" t="b">
-        <f>SUMPRODUCT(--(F13=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R13" t="b">
-        <f>SUMPRODUCT(--(G13=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S13" t="b">
-        <f>SUMPRODUCT(--(H13=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T13" t="b">
-        <f>SUMPRODUCT(--(I13=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U13" t="b">
-        <f>SUMPRODUCT(--(J13=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V13" t="b">
-        <f>SUMPRODUCT(--(K13=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W13" t="b">
-        <f>SUMPRODUCT(--(L13=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2026,43 +1841,43 @@
         <v>14</v>
       </c>
       <c r="N14" t="b">
-        <f>SUMPRODUCT(--(C14=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O14" t="b">
-        <f>SUMPRODUCT(--(D14=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <f>SUMPRODUCT(--(E14=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q14" t="b">
-        <f>SUMPRODUCT(--(F14=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R14" t="b">
-        <f>SUMPRODUCT(--(G14=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S14" t="b">
-        <f>SUMPRODUCT(--(H14=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T14" t="b">
-        <f>SUMPRODUCT(--(I14=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U14" t="b">
-        <f>SUMPRODUCT(--(J14=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V14" t="b">
-        <f>SUMPRODUCT(--(K14=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W14" t="b">
-        <f>SUMPRODUCT(--(L14=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2101,43 +1916,43 @@
         <v>14</v>
       </c>
       <c r="N15" t="b">
-        <f>SUMPRODUCT(--(C15=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15" t="b">
-        <f>SUMPRODUCT(--(D15=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <f>SUMPRODUCT(--(E15=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15" t="b">
-        <f>SUMPRODUCT(--(F15=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" t="b">
-        <f>SUMPRODUCT(--(G15=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S15" t="b">
-        <f>SUMPRODUCT(--(H15=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T15" t="b">
-        <f>SUMPRODUCT(--(I15=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U15" t="b">
-        <f>SUMPRODUCT(--(J15=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V15" t="b">
-        <f>SUMPRODUCT(--(K15=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W15" t="b">
-        <f>SUMPRODUCT(--(L15=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2166,43 +1981,43 @@
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
       <c r="N16" t="b">
-        <f>SUMPRODUCT(--(C16=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O16" t="b">
-        <f>SUMPRODUCT(--(D16=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <f>SUMPRODUCT(--(E16=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q16" t="b">
-        <f>SUMPRODUCT(--(F16=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R16" t="b">
-        <f>SUMPRODUCT(--(G16=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S16" t="b">
-        <f>SUMPRODUCT(--(H16=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T16" t="b">
-        <f>SUMPRODUCT(--(I16=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U16" t="b">
-        <f>SUMPRODUCT(--(J16=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V16" t="b">
-        <f>SUMPRODUCT(--(K16=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W16" t="b">
-        <f>SUMPRODUCT(--(L16=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2239,43 +2054,43 @@
         <v>15</v>
       </c>
       <c r="N17" t="b">
-        <f>SUMPRODUCT(--(C17=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O17" t="b">
-        <f>SUMPRODUCT(--(D17=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <f>SUMPRODUCT(--(E17=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q17" t="b">
-        <f>SUMPRODUCT(--(F17=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R17" t="b">
-        <f>SUMPRODUCT(--(G17=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S17" t="b">
-        <f>SUMPRODUCT(--(H17=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T17" t="b">
-        <f>SUMPRODUCT(--(I17=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U17" t="b">
-        <f>SUMPRODUCT(--(J17=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V17" t="b">
-        <f>SUMPRODUCT(--(K17=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W17" t="b">
-        <f>SUMPRODUCT(--(L17=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2314,43 +2129,43 @@
         <v>15</v>
       </c>
       <c r="N18" t="b">
-        <f>SUMPRODUCT(--(C18=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O18" t="b">
-        <f>SUMPRODUCT(--(D18=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" t="b">
-        <f>SUMPRODUCT(--(E18=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q18" t="b">
-        <f>SUMPRODUCT(--(F18=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R18" t="b">
-        <f>SUMPRODUCT(--(G18=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S18" t="b">
-        <f>SUMPRODUCT(--(H18=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T18" t="b">
-        <f>SUMPRODUCT(--(I18=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U18" t="b">
-        <f>SUMPRODUCT(--(J18=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V18" t="b">
-        <f>SUMPRODUCT(--(K18=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W18" t="b">
-        <f>SUMPRODUCT(--(L18=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2377,43 +2192,43 @@
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
       <c r="N19" t="b">
-        <f>SUMPRODUCT(--(C19=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O19" t="b">
-        <f>SUMPRODUCT(--(D19=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P19" t="b">
-        <f>SUMPRODUCT(--(E19=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q19" t="b">
-        <f>SUMPRODUCT(--(F19=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R19" t="b">
-        <f>SUMPRODUCT(--(G19=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S19" t="b">
-        <f>SUMPRODUCT(--(H19=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19" t="b">
-        <f>SUMPRODUCT(--(I19=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" t="b">
-        <f>SUMPRODUCT(--(J19=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V19" t="b">
-        <f>SUMPRODUCT(--(K19=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W19" t="b">
-        <f>SUMPRODUCT(--(L19=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2450,43 +2265,43 @@
         <v>4</v>
       </c>
       <c r="N20" t="b">
-        <f>SUMPRODUCT(--(C20=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O20" t="b">
-        <f>SUMPRODUCT(--(D20=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P20" t="b">
-        <f>SUMPRODUCT(--(E20=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q20" t="b">
-        <f>SUMPRODUCT(--(F20=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R20" t="b">
-        <f>SUMPRODUCT(--(G20=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S20" t="b">
-        <f>SUMPRODUCT(--(H20=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T20" t="b">
-        <f>SUMPRODUCT(--(I20=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U20" t="b">
-        <f>SUMPRODUCT(--(J20=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V20" t="b">
-        <f>SUMPRODUCT(--(K20=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W20" t="b">
-        <f>SUMPRODUCT(--(L20=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2525,43 +2340,43 @@
         <v>4</v>
       </c>
       <c r="N21" t="b">
-        <f>SUMPRODUCT(--(C21=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O21" t="b">
-        <f>SUMPRODUCT(--(D21=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P21" t="b">
-        <f>SUMPRODUCT(--(E21=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q21" t="b">
-        <f>SUMPRODUCT(--(F21=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R21" t="b">
-        <f>SUMPRODUCT(--(G21=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S21" t="b">
-        <f>SUMPRODUCT(--(H21=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T21" t="b">
-        <f>SUMPRODUCT(--(I21=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U21" t="b">
-        <f>SUMPRODUCT(--(J21=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V21" t="b">
-        <f>SUMPRODUCT(--(K21=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W21" t="b">
-        <f>SUMPRODUCT(--(L21=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2586,43 +2401,43 @@
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="N22" t="b">
-        <f>SUMPRODUCT(--(C22=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O22" t="b">
-        <f>SUMPRODUCT(--(D22=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P22" t="b">
-        <f>SUMPRODUCT(--(E22=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q22" t="b">
-        <f>SUMPRODUCT(--(F22=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R22" t="b">
-        <f>SUMPRODUCT(--(G22=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S22" t="b">
-        <f>SUMPRODUCT(--(H22=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T22" t="b">
-        <f>SUMPRODUCT(--(I22=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U22" t="b">
-        <f>SUMPRODUCT(--(J22=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V22" t="b">
-        <f>SUMPRODUCT(--(K22=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W22" t="b">
-        <f>SUMPRODUCT(--(L22=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2659,43 +2474,43 @@
         <v>5</v>
       </c>
       <c r="N23" t="b">
-        <f>SUMPRODUCT(--(C23=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O23" t="b">
-        <f>SUMPRODUCT(--(D23=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <f>SUMPRODUCT(--(E23=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q23" t="b">
-        <f>SUMPRODUCT(--(F23=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R23" t="b">
-        <f>SUMPRODUCT(--(G23=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S23" t="b">
-        <f>SUMPRODUCT(--(H23=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T23" t="b">
-        <f>SUMPRODUCT(--(I23=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U23" t="b">
-        <f>SUMPRODUCT(--(J23=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V23" t="b">
-        <f>SUMPRODUCT(--(K23=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W23" t="b">
-        <f>SUMPRODUCT(--(L23=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2734,43 +2549,43 @@
         <v>5</v>
       </c>
       <c r="N24" t="b">
-        <f>SUMPRODUCT(--(C24=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O24" t="b">
-        <f>SUMPRODUCT(--(D24=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <f>SUMPRODUCT(--(E24=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q24" t="b">
-        <f>SUMPRODUCT(--(F24=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R24" t="b">
-        <f>SUMPRODUCT(--(G24=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S24" t="b">
-        <f>SUMPRODUCT(--(H24=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T24" t="b">
-        <f>SUMPRODUCT(--(I24=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U24" t="b">
-        <f>SUMPRODUCT(--(J24=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V24" t="b">
-        <f>SUMPRODUCT(--(K24=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W24" t="b">
-        <f>SUMPRODUCT(--(L24=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2793,43 +2608,43 @@
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="N25" t="b">
-        <f>SUMPRODUCT(--(C25=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O25" t="b">
-        <f>SUMPRODUCT(--(D25=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <f>SUMPRODUCT(--(E25=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q25" t="b">
-        <f>SUMPRODUCT(--(F25=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R25" t="b">
-        <f>SUMPRODUCT(--(G25=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25" t="b">
-        <f>SUMPRODUCT(--(H25=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T25" t="b">
-        <f>SUMPRODUCT(--(I25=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U25" t="b">
-        <f>SUMPRODUCT(--(J25=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V25" t="b">
-        <f>SUMPRODUCT(--(K25=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W25" t="b">
-        <f>SUMPRODUCT(--(L25=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2866,43 +2681,43 @@
         <v>6</v>
       </c>
       <c r="N26" t="b">
-        <f>SUMPRODUCT(--(C26=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O26" t="b">
-        <f>SUMPRODUCT(--(D26=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <f>SUMPRODUCT(--(E26=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q26" t="b">
-        <f>SUMPRODUCT(--(F26=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R26" t="b">
-        <f>SUMPRODUCT(--(G26=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S26" t="b">
-        <f>SUMPRODUCT(--(H26=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T26" t="b">
-        <f>SUMPRODUCT(--(I26=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U26" t="b">
-        <f>SUMPRODUCT(--(J26=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V26" t="b">
-        <f>SUMPRODUCT(--(K26=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W26" t="b">
-        <f>SUMPRODUCT(--(L26=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2941,43 +2756,43 @@
         <v>6</v>
       </c>
       <c r="N27" t="b">
-        <f>SUMPRODUCT(--(C27=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27" t="b">
-        <f>SUMPRODUCT(--(D27=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <f>SUMPRODUCT(--(E27=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q27" t="b">
-        <f>SUMPRODUCT(--(F27=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R27" t="b">
-        <f>SUMPRODUCT(--(G27=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S27" t="b">
-        <f>SUMPRODUCT(--(H27=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T27" t="b">
-        <f>SUMPRODUCT(--(I27=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U27" t="b">
-        <f>SUMPRODUCT(--(J27=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V27" t="b">
-        <f>SUMPRODUCT(--(K27=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W27" t="b">
-        <f>SUMPRODUCT(--(L27=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2998,43 +2813,43 @@
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
       <c r="N28" t="b">
-        <f>SUMPRODUCT(--(C28=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O28" t="b">
-        <f>SUMPRODUCT(--(D28=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P28" t="b">
-        <f>SUMPRODUCT(--(E28=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q28" t="b">
-        <f>SUMPRODUCT(--(F28=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R28" t="b">
-        <f>SUMPRODUCT(--(G28=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" t="b">
-        <f>SUMPRODUCT(--(H28=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T28" t="b">
-        <f>SUMPRODUCT(--(I28=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U28" t="b">
-        <f>SUMPRODUCT(--(J28=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V28" t="b">
-        <f>SUMPRODUCT(--(K28=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W28" t="b">
-        <f>SUMPRODUCT(--(L28=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3071,43 +2886,43 @@
         <v>7</v>
       </c>
       <c r="N29" t="b">
-        <f>SUMPRODUCT(--(C29=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O29" t="b">
-        <f>SUMPRODUCT(--(D29=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <f>SUMPRODUCT(--(E29=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q29" t="b">
-        <f>SUMPRODUCT(--(F29=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R29" t="b">
-        <f>SUMPRODUCT(--(G29=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S29" t="b">
-        <f>SUMPRODUCT(--(H29=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T29" t="b">
-        <f>SUMPRODUCT(--(I29=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U29" t="b">
-        <f>SUMPRODUCT(--(J29=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V29" t="b">
-        <f>SUMPRODUCT(--(K29=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W29" t="b">
-        <f>SUMPRODUCT(--(L29=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -3146,43 +2961,43 @@
         <v>7</v>
       </c>
       <c r="N30" t="b">
-        <f>SUMPRODUCT(--(C30=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O30" t="b">
-        <f>SUMPRODUCT(--(D30=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P30" t="b">
-        <f>SUMPRODUCT(--(E30=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q30" t="b">
-        <f>SUMPRODUCT(--(F30=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R30" t="b">
-        <f>SUMPRODUCT(--(G30=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S30" t="b">
-        <f>SUMPRODUCT(--(H30=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T30" t="b">
-        <f>SUMPRODUCT(--(I30=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U30" t="b">
-        <f>SUMPRODUCT(--(J30=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V30" t="b">
-        <f>SUMPRODUCT(--(K30=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W30" t="b">
-        <f>SUMPRODUCT(--(L30=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -3201,53 +3016,1618 @@
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
       <c r="N31" t="b">
-        <f>SUMPRODUCT(--(C31=things))&gt;0</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O31" t="b">
-        <f>SUMPRODUCT(--(D31=things))&gt;0</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P31" t="b">
-        <f>SUMPRODUCT(--(E31=things))&gt;0</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q31" t="b">
-        <f>SUMPRODUCT(--(F31=things))&gt;0</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R31" t="b">
-        <f>SUMPRODUCT(--(G31=things))&gt;0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" t="b">
-        <f>SUMPRODUCT(--(H31=things))&gt;0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T31" t="b">
-        <f>SUMPRODUCT(--(I31=things))&gt;0</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31" t="b">
-        <f>SUMPRODUCT(--(J31=things))&gt;0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V31" t="b">
-        <f>SUMPRODUCT(--(K31=things))&gt;0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W31" t="b">
-        <f>SUMPRODUCT(--(L31=things))&gt;0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:L3 C6:L6 C30:L30 C27:L27 C24:L24 C21:L21 C18:L18 C15:L15 C12:L12 C9:L9">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>N3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D661D7A-B7B5-4A42-BF3F-AB396BED2A23}">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="6" width="8.88671875" style="5"/>
+    <col min="11" max="11" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="13" max="18" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>F2+E2*2+D2*4+C2*8+B2*16</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(OR(NOT(F2), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B2,C2,D2,E2)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(G2="1","","1")</f>
+        <v/>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" ref="A3:A33" si="0">F3+E3*2+D3*4+C3*8+B3*16</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(OR(NOT(F3), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B3,C3,D3,E3)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>H2+1</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I33" si="1">IF(G3="1","","1")</f>
+        <v/>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(OR(NOT(F4), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B4,C4,D4,E4)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H33" si="2">H3+1</f>
+        <v>2</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(OR(NOT(F5), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B5,C5,D5,E5)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(OR(NOT(F6), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B6,C6,D6,E6)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="19">
+        <f>H27</f>
+        <v>25</v>
+      </c>
+      <c r="L6" s="20">
+        <f>H31</f>
+        <v>29</v>
+      </c>
+      <c r="M6" s="20">
+        <f>H15</f>
+        <v>13</v>
+      </c>
+      <c r="N6" s="21">
+        <f>H11</f>
+        <v>9</v>
+      </c>
+      <c r="O6" s="19">
+        <f>H26</f>
+        <v>24</v>
+      </c>
+      <c r="P6" s="20">
+        <f>H30</f>
+        <v>28</v>
+      </c>
+      <c r="Q6" s="20">
+        <f>H14</f>
+        <v>12</v>
+      </c>
+      <c r="R6" s="21">
+        <f>H10</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(OR(NOT(F7), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B7,C7,D7,E7)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="17">
+        <f>H29</f>
+        <v>27</v>
+      </c>
+      <c r="L7" s="5">
+        <f>H33</f>
+        <v>31</v>
+      </c>
+      <c r="M7" s="5">
+        <f>H17</f>
+        <v>15</v>
+      </c>
+      <c r="N7" s="18">
+        <f>H13</f>
+        <v>11</v>
+      </c>
+      <c r="O7" s="17">
+        <f>H28</f>
+        <v>26</v>
+      </c>
+      <c r="P7" s="5">
+        <f>H32</f>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>H16</f>
+        <v>14</v>
+      </c>
+      <c r="R7" s="18">
+        <f>H12</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(OR(NOT(F8), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B8,C8,D8,E8)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="17">
+        <f>H21</f>
+        <v>19</v>
+      </c>
+      <c r="L8" s="5">
+        <f>H25</f>
+        <v>23</v>
+      </c>
+      <c r="M8" s="5">
+        <f>H9</f>
+        <v>7</v>
+      </c>
+      <c r="N8" s="18">
+        <f>H5</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="17">
+        <f>H20</f>
+        <v>18</v>
+      </c>
+      <c r="P8" s="5">
+        <f>H24</f>
+        <v>22</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>H8</f>
+        <v>6</v>
+      </c>
+      <c r="R8" s="18">
+        <f>H4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(OR(NOT(F9), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B9,C9,D9,E9)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="22">
+        <f>H19</f>
+        <v>17</v>
+      </c>
+      <c r="L9" s="23">
+        <f>H23</f>
+        <v>21</v>
+      </c>
+      <c r="M9" s="23">
+        <f>H7</f>
+        <v>5</v>
+      </c>
+      <c r="N9" s="24">
+        <f>H3</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="22">
+        <f>H18</f>
+        <v>16</v>
+      </c>
+      <c r="P9" s="23">
+        <f>H22</f>
+        <v>20</v>
+      </c>
+      <c r="Q9" s="23">
+        <f>H6</f>
+        <v>4</v>
+      </c>
+      <c r="R9" s="24">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(OR(NOT(F10), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B10,C10,D10,E10)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(OR(NOT(F11), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B11,C11,D11,E11)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="str">
+        <f>ADDRESS(N11,L11)</f>
+        <v>$G$2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(OR(NOT(F12), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B12,C12,D12,E12)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="19" t="str">
+        <f t="shared" ref="K12:Q14" ca="1" si="3">INDIRECT(ADDRESS($N$11+K6,$L$11))</f>
+        <v/>
+      </c>
+      <c r="L12" s="20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" s="20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="N12" s="21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="21" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+R6,$L$11))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(OR(NOT(F13), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B13,C13,D13,E13)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L13" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="N13" s="18" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="18" t="str">
+        <f t="shared" ref="R12:R14" ca="1" si="4">INDIRECT(ADDRESS($N$11+R7,$L$11))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(OR(NOT(F14), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B14,C14,D14,E14)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K14" s="17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="18" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="18" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(OR(NOT(F15), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B15,C15,D15,E15)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="22" t="str">
+        <f t="shared" ref="K15:Q15" ca="1" si="5">INDIRECT(ADDRESS($N$11+K9,$L$11))</f>
+        <v/>
+      </c>
+      <c r="L15" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="M15" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="24" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="22" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="23" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="24" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+R9,$L$11))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(OR(NOT(F16), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B16,C16,D16,E16)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(OR(NOT(F17), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B17,C17,D17,E17)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(OR(NOT(F18), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B18,C18,D18,E18)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="str">
+        <f>ADDRESS(N18,L18)</f>
+        <v>$I$2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(OR(NOT(F19), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B19,C19,D19,E19)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="19" t="str">
+        <f t="shared" ref="K19:Q21" ca="1" si="6">INDIRECT(ADDRESS($N$18+K6,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="21" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O19" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="P19" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Q19" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="R19" s="21" t="str">
+        <f t="shared" ref="R19:R21" ca="1" si="7">INDIRECT(ADDRESS($N$18+R6,$L$18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(OR(NOT(F20), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B20,C20,D20,E20)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K20" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="18" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O20" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="P20" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Q20" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="R20" s="18" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(OR(NOT(F21), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B21,C21,D21,E21)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="N21" s="18" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O21" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="P21" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="Q21" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="R21" s="18" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(OR(NOT(F22), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B22,C22,D22,E22)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K22" s="22" t="str">
+        <f t="shared" ref="K22:Q22" ca="1" si="8">INDIRECT(ADDRESS($N$18+K9,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="23" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="23" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="N22" s="24" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="O22" s="22" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="P22" s="23" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="Q22" s="23" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="R22" s="24" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+R9,$L$18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(OR(NOT(F23), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B23,C23,D23,E23)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(OR(NOT(F24), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B24,C24,D24,E24)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(OR(NOT(F25), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B25,C25,D25,E25)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(OR(NOT(F26), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B26,C26,D26,E26)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(OR(NOT(F27), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B27,C27,D27,E27)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(OR(NOT(F28), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B28,C28,D28,E28)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(OR(NOT(F29), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B29,C29,D29,E29)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="17">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(OR(NOT(F30), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B30,C30,D30,E30)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(OR(NOT(F31), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B31,C31,D31,E31)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(OR(NOT(F32), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B32,C32,D32,E32)=alph))=0),"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="22">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23">
+        <v>1</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(OR(NOT(F33), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B33,C33,D33,E33)=alph))=0),"1","")</f>
+        <v/>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Projects\theory-of-automata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B0569-7506-40EC-84E1-0FA20F6562EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE0A282-68EE-4069-AA2E-30E7E7316053}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D65DE9B-0E5A-4347-A01E-0563EE237CE4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="46">
   <si>
     <t>0_0001</t>
   </si>
@@ -232,6 +232,24 @@
   <si>
     <t>Таблица адресов</t>
   </si>
+  <si>
+    <t>Коррекция</t>
+  </si>
+  <si>
+    <t>Перенос</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Г4</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Раньше</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -483,11 +501,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -502,7 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -515,18 +554,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -854,7 +903,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3069,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D661D7A-B7B5-4A42-BF3F-AB396BED2A23}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3081,79 +3130,80 @@
     <col min="11" max="11" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.33203125" customWidth="1"/>
     <col min="13" max="18" width="4.77734375" customWidth="1"/>
+    <col min="20" max="27" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="21" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>F2+E2*2+D2*4+C2*8+B2*16</f>
         <v>0</v>
       </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(OR(NOT(F2), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B2,C2,D2,E2)=alph))=0),"1","")</f>
-        <v>1</v>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B2,C2,D2,E2)=alph))&gt;0,IF(NOT(F2),"1",""),IF(F2,"1","x"))</f>
+        <v>x</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(G2="1","","1")</f>
-        <v/>
-      </c>
-      <c r="J2" s="25" t="s">
+        <f>IF(G2="x","x",IF(G2="1","","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A33" si="0">F3+E3*2+D3*4+C3*8+B3*16</f>
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
       <c r="C3" s="5">
@@ -3162,14 +3212,14 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(OR(NOT(F3), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B3,C3,D3,E3)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B3,C3,D3,E3)=alph))&gt;0,IF(NOT(F3),"1",""),IF(F3,"1","x"))</f>
         <v>1</v>
       </c>
       <c r="H3">
@@ -3177,19 +3227,19 @@
         <v>1</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I33" si="1">IF(G3="1","","1")</f>
+        <f t="shared" ref="I3:I33" si="1">IF(G3="x","x",IF(G3="1","","1"))</f>
         <v/>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="5">
@@ -3198,15 +3248,15 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <f>IF(OR(NOT(F4), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B4,C4,D4,E4)=alph))=0),"1","")</f>
-        <v>1</v>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B4,C4,D4,E4)=alph))&gt;0,IF(NOT(F4),"1",""),IF(F4,"1","x"))</f>
+        <v>x</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H33" si="2">H3+1</f>
@@ -3214,21 +3264,21 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J4" s="25" t="s">
+        <v>x</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="5">
@@ -3237,14 +3287,14 @@
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f>IF(OR(NOT(F5), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B5,C5,D5,E5)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B5,C5,D5,E5)=alph))&gt;0,IF(NOT(F5),"1",""),IF(F5,"1","x"))</f>
         <v>1</v>
       </c>
       <c r="H5">
@@ -3255,7 +3305,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>29</v>
       </c>
       <c r="K5" t="s">
@@ -3271,12 +3321,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="4">
         <v>0</v>
       </c>
       <c r="C6" s="5">
@@ -3285,15 +3335,15 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <f>IF(OR(NOT(F6), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B6,C6,D6,E6)=alph))=0),"1","")</f>
-        <v>1</v>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B6,C6,D6,E6)=alph))&gt;0,IF(NOT(F6),"1",""),IF(F6,"1","x"))</f>
+        <v>x</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
@@ -3301,50 +3351,50 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J6" s="25" t="s">
+        <v>x</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="18">
         <f>H27</f>
         <v>25</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <f>H31</f>
         <v>29</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <f>H15</f>
         <v>13</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <f>H11</f>
         <v>9</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="18">
         <f>H26</f>
         <v>24</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="19">
         <f>H30</f>
         <v>28</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="19">
         <f>H14</f>
         <v>12</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="20">
         <f>H10</f>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="4">
         <v>0</v>
       </c>
       <c r="C7" s="5">
@@ -3353,14 +3403,14 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>IF(OR(NOT(F7), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B7,C7,D7,E7)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B7,C7,D7,E7)=alph))&gt;0,IF(NOT(F7),"1",""),IF(F7,"1","x"))</f>
         <v>1</v>
       </c>
       <c r="H7">
@@ -3371,10 +3421,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <f>H29</f>
         <v>27</v>
       </c>
@@ -3386,11 +3436,11 @@
         <f>H17</f>
         <v>15</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <f>H13</f>
         <v>11</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <f>H28</f>
         <v>26</v>
       </c>
@@ -3402,17 +3452,17 @@
         <f>H16</f>
         <v>14</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="17">
         <f>H12</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="5">
@@ -3421,15 +3471,15 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <f>IF(OR(NOT(F8), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B8,C8,D8,E8)=alph))=0),"1","")</f>
-        <v>1</v>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B8,C8,D8,E8)=alph))&gt;0,IF(NOT(F8),"1",""),IF(F8,"1","x"))</f>
+        <v>x</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
@@ -3437,12 +3487,12 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="25" t="s">
+        <v>x</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <f>H21</f>
         <v>19</v>
       </c>
@@ -3454,11 +3504,11 @@
         <f>H9</f>
         <v>7</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <f>H5</f>
         <v>3</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <f>H20</f>
         <v>18</v>
       </c>
@@ -3470,17 +3520,17 @@
         <f>H8</f>
         <v>6</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="17">
         <f>H4</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="5">
@@ -3489,14 +3539,14 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f>IF(OR(NOT(F9), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B9,C9,D9,E9)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B9,C9,D9,E9)=alph))&gt;0,IF(NOT(F9),"1",""),IF(F9,"1","x"))</f>
         <v>1</v>
       </c>
       <c r="H9">
@@ -3507,48 +3557,48 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <f>H19</f>
         <v>17</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <f>H23</f>
         <v>21</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="22">
         <f>H7</f>
         <v>5</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="23">
         <f>H3</f>
         <v>1</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="21">
         <f>H18</f>
         <v>16</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="22">
         <f>H22</f>
         <v>20</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="22">
         <f>H6</f>
         <v>4</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="23">
         <f>H2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
       <c r="C10" s="5">
@@ -3557,15 +3607,15 @@
       <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>0</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(OR(NOT(F10), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B10,C10,D10,E10)=alph))=0),"1","")</f>
-        <v>1</v>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B10,C10,D10,E10)=alph))&gt;0,IF(NOT(F10),"1",""),IF(F10,"1","x"))</f>
+        <v>x</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
@@ -3573,18 +3623,24 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="25" t="s">
+        <v>x</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="C11" s="5">
@@ -3593,14 +3649,14 @@
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(OR(NOT(F11), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B11,C11,D11,E11)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B11,C11,D11,E11)=alph))&gt;0,IF(NOT(F11),"1",""),IF(F11,"1","x"))</f>
         <v>1</v>
       </c>
       <c r="H11">
@@ -3627,13 +3683,16 @@
         <f>ADDRESS(N11,L11)</f>
         <v>$G$2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="4">
         <v>0</v>
       </c>
       <c r="C12" s="5">
@@ -3642,15 +3701,15 @@
       <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(OR(NOT(F12), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B12,C12,D12,E12)=alph))=0),"1","")</f>
-        <v>1</v>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B12,C12,D12,E12)=alph))&gt;0,IF(NOT(F12),"1",""),IF(F12,"1","x"))</f>
+        <v>x</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
@@ -3658,63 +3717,87 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="19" t="str">
+        <v>x</v>
+      </c>
+      <c r="K12" s="18" t="str">
         <f t="shared" ref="K12:Q14" ca="1" si="3">INDIRECT(ADDRESS($N$11+K6,$L$11))</f>
         <v/>
       </c>
-      <c r="L12" s="20" t="str">
+      <c r="L12" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="20" t="str">
+      <c r="M12" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N12" s="21" t="str">
+      <c r="N12" s="20" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="O12" s="19" t="str">
+      <c r="O12" s="18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="20" t="str">
+        <v>x</v>
+      </c>
+      <c r="P12" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="20" t="str">
+      <c r="Q12" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="21" t="str">
+        <v>x</v>
+      </c>
+      <c r="R12" s="20" t="str">
         <f ca="1">INDIRECT(ADDRESS($N$11+R6,$L$11))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>x</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="33">
+        <v>1</v>
+      </c>
+      <c r="X12" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="B13" s="41">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="42">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
         <v>1</v>
       </c>
       <c r="G13" t="str">
-        <f>IF(OR(NOT(F13), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B13,C13,D13,E13)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B13,C13,D13,E13)=alph))&gt;0,IF(NOT(F13),"1",""),IF(F13,"1","x"))</f>
         <v>1</v>
       </c>
       <c r="H13">
@@ -3725,23 +3808,23 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K13" s="16" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="M13" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="18" t="str">
+      <c r="N13" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="16" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
@@ -3751,19 +3834,43 @@
       </c>
       <c r="Q13" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="18" t="str">
+        <v>x</v>
+      </c>
+      <c r="R13" s="17" t="str">
         <f t="shared" ref="R12:R14" ca="1" si="4">INDIRECT(ADDRESS($N$11+R7,$L$11))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>x</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="36">
+        <v>1</v>
+      </c>
+      <c r="X13" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="4">
         <v>0</v>
       </c>
       <c r="C14" s="5">
@@ -3772,15 +3879,14 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" t="str">
-        <f>IF(OR(NOT(F14), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B14,C14,D14,E14)=alph))=0),"1","")</f>
-        <v>1</v>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
@@ -3788,9 +3894,9 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K14" s="17" t="str">
+        <v>x</v>
+      </c>
+      <c r="K14" s="16" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
@@ -3802,33 +3908,57 @@
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="N14" s="18" t="str">
+      <c r="N14" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>x</v>
       </c>
       <c r="P14" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>x</v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="18" t="str">
+        <v>x</v>
+      </c>
+      <c r="R14" s="17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>x</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="32">
+        <v>1</v>
+      </c>
+      <c r="W14" s="36">
+        <v>1</v>
+      </c>
+      <c r="X14" s="37">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="4">
         <v>0</v>
       </c>
       <c r="C15" s="5">
@@ -3837,14 +3967,14 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f>IF(OR(NOT(F15), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B15,C15,D15,E15)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B15,C15,D15,E15)=alph))&gt;0,IF(NOT(F15),"1",""),IF(F15,"1","x"))</f>
         <v/>
       </c>
       <c r="H15">
@@ -3855,45 +3985,69 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K15" s="22" t="str">
+      <c r="K15" s="21" t="str">
         <f t="shared" ref="K15:Q15" ca="1" si="5">INDIRECT(ADDRESS($N$11+K9,$L$11))</f>
         <v/>
       </c>
-      <c r="L15" s="23" t="str">
+      <c r="L15" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="23" t="str">
+      <c r="M15" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="N15" s="24" t="str">
+      <c r="N15" s="23" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="O15" s="22" t="str">
+      <c r="O15" s="21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="23" t="str">
+        <v>x</v>
+      </c>
+      <c r="P15" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="23" t="str">
+        <v>x</v>
+      </c>
+      <c r="Q15" s="22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="24" t="str">
+        <v>x</v>
+      </c>
+      <c r="R15" s="23" t="str">
         <f ca="1">INDIRECT(ADDRESS($N$11+R9,$L$11))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>x</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" s="38">
+        <v>1</v>
+      </c>
+      <c r="W15" s="39">
+        <v>1</v>
+      </c>
+      <c r="X15" s="40">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="4">
         <v>0</v>
       </c>
       <c r="C16" s="5">
@@ -3902,15 +4056,14 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
-        <f>IF(OR(NOT(F16), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B16,C16,D16,E16)=alph))=0),"1","")</f>
-        <v>1</v>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
@@ -3918,33 +4071,33 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B17,C17,D17,E17)=alph))&gt;0,IF(NOT(F17),"1",""),IF(F17,"1","x"))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" t="str">
-        <f>IF(OR(NOT(F17), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B17,C17,D17,E17)=alph))=0),"1","")</f>
-        <v/>
-      </c>
       <c r="H17">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -3953,13 +4106,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="5">
@@ -3968,15 +4124,14 @@
       <c r="D18" s="5">
         <v>0</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="str">
-        <f>IF(OR(NOT(F18), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B18,C18,D18,E18)=alph))=0),"1","")</f>
-        <v>1</v>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
@@ -3984,7 +4139,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="K18" t="s">
         <v>36</v>
@@ -4003,12 +4158,12 @@
         <v>$I$2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="5">
@@ -4017,14 +4172,14 @@
       <c r="D19" s="5">
         <v>0</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(OR(NOT(F19), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B19,C19,D19,E19)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B19,C19,D19,E19)=alph))&gt;0,IF(NOT(F19),"1",""),IF(F19,"1","x"))</f>
         <v/>
       </c>
       <c r="H19">
@@ -4035,88 +4190,103 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K19" s="19" t="str">
+      <c r="K19" s="18" t="str">
         <f t="shared" ref="K19:Q21" ca="1" si="6">INDIRECT(ADDRESS($N$18+K6,$L$18))</f>
         <v>1</v>
       </c>
-      <c r="L19" s="20" t="str">
+      <c r="L19" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M19" s="20" t="str">
+      <c r="M19" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="N19" s="21" t="str">
+      <c r="N19" s="20" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O19" s="19" t="str">
+      <c r="O19" s="18" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="P19" s="19" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="P19" s="20" t="str">
+      <c r="Q19" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="R19" s="20" t="str">
+        <f t="shared" ref="R19:R21" ca="1" si="7">INDIRECT(ADDRESS($N$18+R6,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="T19" s="34">
+        <v>1</v>
+      </c>
+      <c r="U19" s="35">
+        <v>1</v>
+      </c>
+      <c r="V19" s="35">
+        <v>1</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="20"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="K20" s="16" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="M20" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="Q19" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R19" s="21" t="str">
-        <f t="shared" ref="R19:R21" ca="1" si="7">INDIRECT(ADDRESS($N$18+R6,$L$18))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="17">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" t="str">
-        <f>IF(OR(NOT(F20), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B20,C20,D20,E20)=alph))=0),"1","")</f>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="18" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O20" s="17" t="str">
+      <c r="O20" s="16" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
@@ -4126,46 +4296,62 @@
       </c>
       <c r="Q20" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="R20" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="T20" s="37">
+        <v>1</v>
+      </c>
+      <c r="U20" s="5">
+        <v>1</v>
+      </c>
+      <c r="V20" s="32">
+        <v>1</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="17"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B21,C21,D21,E21)=alph))&gt;0,IF(NOT(F21),"1",""),IF(F21,"1","x"))</f>
         <v/>
       </c>
-      <c r="R20" s="18" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
+      <c r="H21">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" t="str">
-        <f>IF(OR(NOT(F21), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B21,C21,D21,E21)=alph))=0),"1","")</f>
-        <v/>
-      </c>
-      <c r="H21">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K21" s="17" t="str">
+      <c r="K21" s="16" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
@@ -4177,33 +4363,49 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="N21" s="18" t="str">
+      <c r="N21" s="17" t="str">
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O21" s="16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="P21" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="Q21" s="5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="R21" s="18" t="str">
+        <v>x</v>
+      </c>
+      <c r="R21" s="17" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>x</v>
+      </c>
+      <c r="T21" s="37">
+        <v>1</v>
+      </c>
+      <c r="U21" s="32">
+        <v>1</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="17"/>
+    </row>
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="5">
@@ -4212,15 +4414,14 @@
       <c r="D22" s="5">
         <v>1</v>
       </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-      <c r="G22" t="str">
-        <f>IF(OR(NOT(F22), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B22,C22,D22,E22)=alph))=0),"1","")</f>
-        <v>1</v>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
@@ -4228,344 +4429,358 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K22" s="22" t="str">
+        <v>x</v>
+      </c>
+      <c r="K22" s="21" t="str">
         <f t="shared" ref="K22:Q22" ca="1" si="8">INDIRECT(ADDRESS($N$18+K9,$L$18))</f>
         <v>1</v>
       </c>
-      <c r="L22" s="23" t="str">
+      <c r="L22" s="22" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="M22" s="23" t="str">
+      <c r="M22" s="22" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="24" t="str">
+      <c r="N22" s="23" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="O22" s="22" t="str">
+      <c r="O22" s="21" t="str">
         <f t="shared" ca="1" si="8"/>
+        <v>x</v>
+      </c>
+      <c r="P22" s="22" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>x</v>
+      </c>
+      <c r="Q22" s="22" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>x</v>
+      </c>
+      <c r="R22" s="23" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+R9,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="T22" s="40">
+        <v>1</v>
+      </c>
+      <c r="U22" s="38">
+        <v>1</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="23"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B23,C23,D23,E23)=alph))&gt;0,IF(NOT(F23),"1",""),IF(F23,"1","x"))</f>
         <v/>
       </c>
-      <c r="P22" s="23" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B25,C25,D25,E25)=alph))&gt;0,IF(NOT(F25),"1",""),IF(F25,"1","x"))</f>
         <v/>
       </c>
-      <c r="Q22" s="23" t="str">
-        <f t="shared" ca="1" si="8"/>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B27,C27,D27,E27)=alph))&gt;0,IF(NOT(F27),"1",""),IF(F27,"1","x"))</f>
         <v/>
       </c>
-      <c r="R22" s="24" t="str">
-        <f ca="1">INDIRECT(ADDRESS($N$18+R9,$L$18))</f>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B28,C28,D28,E28)=alph))&gt;0,IF(NOT(F28),"1",""),IF(F28,"1","x"))</f>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="17">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" t="str">
-        <f>IF(OR(NOT(F23), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B23,C23,D23,E23)=alph))=0),"1","")</f>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B29,C29,D29,E29)=alph))&gt;0,IF(NOT(F29),"1",""),IF(F29,"1","x"))</f>
         <v/>
       </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="17">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0</v>
-      </c>
-      <c r="G24" t="str">
-        <f>IF(OR(NOT(F24), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B24,C24,D24,E24)=alph))=0),"1","")</f>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I24" t="str">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B30,C30,D30,E30)=alph))&gt;0,IF(NOT(F30),"1",""),IF(F30,"1","x"))</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="17">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" t="str">
-        <f>IF(OR(NOT(F25), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B25,C25,D25,E25)=alph))=0),"1","")</f>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B31,C31,D31,E31)=alph))&gt;0,IF(NOT(F31),"1",""),IF(F31,"1","x"))</f>
         <v/>
       </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="17">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" t="str">
-        <f>IF(OR(NOT(F26), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B26,C26,D26,E26)=alph))=0),"1","")</f>
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="17">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" t="str">
-        <f>IF(OR(NOT(F27), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B27,C27,D27,E27)=alph))=0),"1","")</f>
-        <v/>
-      </c>
-      <c r="H27">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="17">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
-      <c r="G28" t="str">
-        <f>IF(OR(NOT(F28), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B28,C28,D28,E28)=alph))=0),"1","")</f>
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="17">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" t="str">
-        <f>IF(OR(NOT(F29), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B29,C29,D29,E29)=alph))=0),"1","")</f>
-        <v/>
-      </c>
-      <c r="H29">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="17">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0</v>
-      </c>
-      <c r="G30" t="str">
-        <f>IF(OR(NOT(F30), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B30,C30,D30,E30)=alph))=0),"1","")</f>
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
+      <c r="H31">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="17">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1</v>
-      </c>
-      <c r="G31" t="str">
-        <f>IF(OR(NOT(F31), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B31,C31,D31,E31)=alph))=0),"1","")</f>
-        <v/>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="4">
         <v>1</v>
       </c>
       <c r="C32" s="5">
@@ -4574,14 +4789,14 @@
       <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17">
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>IF(OR(NOT(F32), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B32,C32,D32,E32)=alph))=0),"1","")</f>
+        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B32,C32,D32,E32)=alph))&gt;0,IF(NOT(F32),"1",""),IF(F32,"1","x"))</f>
         <v>1</v>
       </c>
       <c r="H32">
@@ -4598,24 +4813,23 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="22">
-        <v>1</v>
-      </c>
-      <c r="C33" s="23">
-        <v>1</v>
-      </c>
-      <c r="D33" s="23">
-        <v>1</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1</v>
-      </c>
-      <c r="F33" s="24">
-        <v>1</v>
-      </c>
-      <c r="G33" t="str">
-        <f>IF(OR(NOT(F33), SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B33,C33,D33,E33)=alph))=0),"1","")</f>
-        <v/>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
@@ -4623,7 +4837,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>x</v>
       </c>
     </row>
   </sheetData>

--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Projects\theory-of-automata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE0A282-68EE-4069-AA2E-30E7E7316053}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD97D61-7F40-43DB-86BB-19224BB79A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D65DE9B-0E5A-4347-A01E-0563EE237CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6D65DE9B-0E5A-4347-A01E-0563EE237CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Коррекция" sheetId="2" r:id="rId2"/>
+    <sheet name="Обратный код" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="alph" localSheetId="1">Sheet1!$J$1:$J$10</definedName>
+    <definedName name="alph">'Обратный код'!$K$1:$K$10</definedName>
     <definedName name="things">Лист1!$M$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="56">
   <si>
     <t>0_0001</t>
   </si>
@@ -249,6 +250,36 @@
   </si>
   <si>
     <t>Раньше</t>
+  </si>
+  <si>
+    <t>А0</t>
+  </si>
+  <si>
+    <t>А4</t>
+  </si>
+  <si>
+    <t>А8</t>
+  </si>
+  <si>
+    <t>А2</t>
+  </si>
+  <si>
+    <t>А1</t>
+  </si>
+  <si>
+    <t>_А8_</t>
+  </si>
+  <si>
+    <t>_А4_</t>
+  </si>
+  <si>
+    <t>_А2_</t>
+  </si>
+  <si>
+    <t>_А1_</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -527,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -571,15 +602,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3120,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D661D7A-B7B5-4A42-BF3F-AB396BED2A23}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3184,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B2,C2,D2,E2)=alph))&gt;0,IF(NOT(F2),"1",""),IF(F2,"1","x"))</f>
+        <f t="shared" ref="G2:G13" si="0">IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B2,C2,D2,E2)=alph))&gt;0,IF(NOT(F2),"1",""),IF(F2,"1","x"))</f>
         <v>x</v>
       </c>
       <c r="H2">
@@ -3200,7 +3252,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A33" si="0">F3+E3*2+D3*4+C3*8+B3*16</f>
+        <f t="shared" ref="A3:A33" si="1">F3+E3*2+D3*4+C3*8+B3*16</f>
         <v>1</v>
       </c>
       <c r="B3" s="4">
@@ -3219,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B3,C3,D3,E3)=alph))&gt;0,IF(NOT(F3),"1",""),IF(F3,"1","x"))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3">
@@ -3227,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I33" si="1">IF(G3="x","x",IF(G3="1","","1"))</f>
+        <f t="shared" ref="I3:I33" si="2">IF(G3="x","x",IF(G3="1","","1"))</f>
         <v/>
       </c>
       <c r="J3" s="24" t="s">
@@ -3236,34 +3288,34 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H33" si="3">H3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B4,C4,D4,E4)=alph))&gt;0,IF(NOT(F4),"1",""),IF(F4,"1","x"))</f>
-        <v>x</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H33" si="2">H3+1</f>
-        <v>2</v>
-      </c>
       <c r="I4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="J4" s="24" t="s">
@@ -3275,34 +3327,34 @@
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B5,C5,D5,E5)=alph))&gt;0,IF(NOT(F5),"1",""),IF(F5,"1","x"))</f>
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J5" s="24" t="s">
@@ -3323,34 +3375,34 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B6,C6,D6,E6)=alph))&gt;0,IF(NOT(F6),"1",""),IF(F6,"1","x"))</f>
-        <v>x</v>
-      </c>
-      <c r="H6">
+      <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="J6" s="24" t="s">
@@ -3391,34 +3443,34 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B7,C7,D7,E7)=alph))&gt;0,IF(NOT(F7),"1",""),IF(F7,"1","x"))</f>
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J7" s="24" t="s">
@@ -3459,34 +3511,34 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B8,C8,D8,E8)=alph))&gt;0,IF(NOT(F8),"1",""),IF(F8,"1","x"))</f>
-        <v>x</v>
-      </c>
-      <c r="H8">
+      <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="J8" s="24" t="s">
@@ -3527,34 +3579,34 @@
     </row>
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B9,C9,D9,E9)=alph))&gt;0,IF(NOT(F9),"1",""),IF(F9,"1","x"))</f>
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J9" s="24" t="s">
@@ -3595,34 +3647,34 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B10,C10,D10,E10)=alph))&gt;0,IF(NOT(F10),"1",""),IF(F10,"1","x"))</f>
-        <v>x</v>
-      </c>
-      <c r="H10">
+      <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="J10" s="24" t="s">
@@ -3637,34 +3689,34 @@
     </row>
     <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B11,C11,D11,E11)=alph))&gt;0,IF(NOT(F11),"1",""),IF(F11,"1","x"))</f>
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K11" t="s">
@@ -3689,62 +3741,62 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
+        <v>x</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B12,C12,D12,E12)=alph))&gt;0,IF(NOT(F12),"1",""),IF(F12,"1","x"))</f>
-        <v>x</v>
-      </c>
-      <c r="H12">
+      <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="K12" s="18" t="str">
-        <f t="shared" ref="K12:Q14" ca="1" si="3">INDIRECT(ADDRESS($N$11+K6,$L$11))</f>
+        <f t="shared" ref="K12:Q14" ca="1" si="4">INDIRECT(ADDRESS($N$11+K6,$L$11))</f>
         <v/>
       </c>
       <c r="L12" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M12" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N12" s="20" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="O12" s="18" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>x</v>
       </c>
       <c r="P12" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="Q12" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>x</v>
       </c>
       <c r="R12" s="20" t="str">
@@ -3778,66 +3830,66 @@
     </row>
     <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="41">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="42">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B13" s="41">
-        <v>0</v>
-      </c>
-      <c r="C13" s="22">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="42">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23">
-        <v>1</v>
-      </c>
-      <c r="G13" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B13,C13,D13,E13)=alph))&gt;0,IF(NOT(F13),"1",""),IF(F13,"1","x"))</f>
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K13" s="16" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L13" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>x</v>
       </c>
       <c r="M13" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="N13" s="17" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="O13" s="16" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="P13" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="Q13" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>x</v>
       </c>
       <c r="R13" s="17" t="str">
-        <f t="shared" ref="R12:R14" ca="1" si="4">INDIRECT(ADDRESS($N$11+R7,$L$11))</f>
+        <f t="shared" ref="R13:R14" ca="1" si="5">INDIRECT(ADDRESS($N$11+R7,$L$11))</f>
         <v>x</v>
       </c>
       <c r="T13" s="28" t="s">
@@ -3867,7 +3919,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="4">
@@ -3889,43 +3941,43 @@
         <v>44</v>
       </c>
       <c r="H14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="K14" s="16" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="L14" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="M14" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="N14" s="17" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="O14" s="16" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>x</v>
       </c>
       <c r="P14" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>x</v>
       </c>
       <c r="Q14" s="5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>x</v>
       </c>
       <c r="R14" s="17" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>x</v>
       </c>
       <c r="T14" s="28" t="s">
@@ -3955,7 +4007,7 @@
     </row>
     <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="4">
@@ -3978,39 +4030,39 @@
         <v/>
       </c>
       <c r="H15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K15" s="21" t="str">
-        <f t="shared" ref="K15:Q15" ca="1" si="5">INDIRECT(ADDRESS($N$11+K9,$L$11))</f>
+        <f t="shared" ref="K15:Q15" ca="1" si="6">INDIRECT(ADDRESS($N$11+K9,$L$11))</f>
         <v/>
       </c>
       <c r="L15" s="22" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="M15" s="22" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="N15" s="23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="O15" s="21" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>x</v>
       </c>
       <c r="P15" s="22" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>x</v>
       </c>
       <c r="Q15" s="22" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>x</v>
       </c>
       <c r="R15" s="23" t="str">
@@ -4044,7 +4096,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="4">
@@ -4066,17 +4118,17 @@
         <v>44</v>
       </c>
       <c r="H16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="4">
@@ -4099,11 +4151,11 @@
         <v/>
       </c>
       <c r="H17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K17" t="s">
@@ -4112,7 +4164,7 @@
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="4">
@@ -4134,11 +4186,11 @@
         <v>44</v>
       </c>
       <c r="H18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="K18" t="s">
@@ -4160,7 +4212,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="4">
@@ -4183,43 +4235,43 @@
         <v/>
       </c>
       <c r="H19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K19" s="18" t="str">
-        <f t="shared" ref="K19:Q21" ca="1" si="6">INDIRECT(ADDRESS($N$18+K6,$L$18))</f>
+        <f t="shared" ref="K19:Q21" ca="1" si="7">INDIRECT(ADDRESS($N$18+K6,$L$18))</f>
         <v>1</v>
       </c>
       <c r="L19" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="M19" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="N19" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="O19" s="18" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>x</v>
       </c>
       <c r="P19" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Q19" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>x</v>
       </c>
       <c r="R19" s="20" t="str">
-        <f t="shared" ref="R19:R21" ca="1" si="7">INDIRECT(ADDRESS($N$18+R6,$L$18))</f>
+        <f t="shared" ref="R19:R21" ca="1" si="8">INDIRECT(ADDRESS($N$18+R6,$L$18))</f>
         <v>x</v>
       </c>
       <c r="T19" s="34">
@@ -4241,7 +4293,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="4">
@@ -4263,43 +4315,43 @@
         <v>44</v>
       </c>
       <c r="H20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="K20" s="16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="L20" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>x</v>
       </c>
       <c r="M20" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="N20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="O20" s="16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="P20" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Q20" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>x</v>
       </c>
       <c r="R20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>x</v>
       </c>
       <c r="T20" s="37">
@@ -4321,7 +4373,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="4">
@@ -4344,43 +4396,43 @@
         <v/>
       </c>
       <c r="H21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K21" s="16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="L21" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="M21" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="N21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="O21" s="16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>x</v>
       </c>
       <c r="P21" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>x</v>
       </c>
       <c r="Q21" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>x</v>
       </c>
       <c r="R21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>x</v>
       </c>
       <c r="T21" s="37">
@@ -4402,7 +4454,7 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="4">
@@ -4424,39 +4476,39 @@
         <v>44</v>
       </c>
       <c r="H22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="K22" s="21" t="str">
-        <f t="shared" ref="K22:Q22" ca="1" si="8">INDIRECT(ADDRESS($N$18+K9,$L$18))</f>
+        <f t="shared" ref="K22:Q22" ca="1" si="9">INDIRECT(ADDRESS($N$18+K9,$L$18))</f>
         <v>1</v>
       </c>
       <c r="L22" s="22" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="M22" s="22" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N22" s="23" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O22" s="21" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>x</v>
       </c>
       <c r="P22" s="22" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>x</v>
       </c>
       <c r="Q22" s="22" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>x</v>
       </c>
       <c r="R22" s="23" t="str">
@@ -4482,7 +4534,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="4">
@@ -4505,17 +4557,17 @@
         <v/>
       </c>
       <c r="H23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="4">
@@ -4537,17 +4589,17 @@
         <v>44</v>
       </c>
       <c r="H24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="4">
@@ -4570,17 +4622,17 @@
         <v/>
       </c>
       <c r="H25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -4602,17 +4654,17 @@
         <v>44</v>
       </c>
       <c r="H26">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I26" t="str">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="4">
@@ -4631,21 +4683,21 @@
         <v>1</v>
       </c>
       <c r="G27" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B27,C27,D27,E27)=alph))&gt;0,IF(NOT(F27),"1",""),IF(F27,"1","x"))</f>
+        <f t="shared" ref="G27:G32" si="10">IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B27,C27,D27,E27)=alph))&gt;0,IF(NOT(F27),"1",""),IF(F27,"1","x"))</f>
         <v/>
       </c>
       <c r="H27">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="12">
@@ -4664,21 +4716,21 @@
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B28,C28,D28,E28)=alph))&gt;0,IF(NOT(F28),"1",""),IF(F28,"1","x"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H28">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="12">
@@ -4697,21 +4749,21 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B29,C29,D29,E29)=alph))&gt;0,IF(NOT(F29),"1",""),IF(F29,"1","x"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H29">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="12">
@@ -4730,21 +4782,21 @@
         <v>0</v>
       </c>
       <c r="G30" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B30,C30,D30,E30)=alph))&gt;0,IF(NOT(F30),"1",""),IF(F30,"1","x"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H30">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="12">
@@ -4763,21 +4815,21 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B31,C31,D31,E31)=alph))&gt;0,IF(NOT(F31),"1",""),IF(F31,"1","x"))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H31">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="4">
@@ -4796,21 +4848,21 @@
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>IF(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,B32,C32,D32,E32)=alph))&gt;0,IF(NOT(F32),"1",""),IF(F32,"1","x"))</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H32">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="7">
@@ -4832,11 +4884,11 @@
         <v>44</v>
       </c>
       <c r="H33">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="1"/>
         <v>x</v>
       </c>
     </row>
@@ -4844,4 +4896,1976 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F691B8AA-9DBD-49F0-B698-B6999047C7B2}">
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="8.88671875" style="16"/>
+    <col min="3" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="10" width="8.88671875" style="5"/>
+    <col min="12" max="12" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="19" width="4.77734375" customWidth="1"/>
+    <col min="21" max="28" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="58" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H2" s="58" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I2" s="58" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J2" s="46" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C3,D3,E3,F3)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H3" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C3,D3,E3,F3)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I3" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C3,D3,E3,F3)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J3" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C3,D3,E3,F3)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <f t="shared" ref="A4:A33" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C4,D4,E4,F4)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H4" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C4,D4,E4,F4)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I4" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C4,D4,E4,F4)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J4" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C4,D4,E4,F4)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C5,D5,E5,F5)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H5" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C5,D5,E5,F5)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I5" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C5,D5,E5,F5)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J5" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C5,D5,E5,F5)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C6,D6,E6,F6)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H6" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C6,D6,E6,F6)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I6" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C6,D6,E6,F6)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J6" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C6,D6,E6,F6)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="18">
+        <f>A27</f>
+        <v>25</v>
+      </c>
+      <c r="M6" s="19">
+        <f>A31</f>
+        <v>29</v>
+      </c>
+      <c r="N6" s="19">
+        <f>A15</f>
+        <v>13</v>
+      </c>
+      <c r="O6" s="20">
+        <f>A11</f>
+        <v>9</v>
+      </c>
+      <c r="P6" s="18">
+        <f>A26</f>
+        <v>24</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>A30</f>
+        <v>28</v>
+      </c>
+      <c r="R6" s="19">
+        <f>A14</f>
+        <v>12</v>
+      </c>
+      <c r="S6" s="20">
+        <f>A10</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C7,D7,E7,F7)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H7" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C7,D7,E7,F7)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I7" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C7,D7,E7,F7)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J7" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C7,D7,E7,F7)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="16">
+        <f>A29</f>
+        <v>27</v>
+      </c>
+      <c r="M7" s="5">
+        <f>A33</f>
+        <v>31</v>
+      </c>
+      <c r="N7" s="5">
+        <f>A17</f>
+        <v>15</v>
+      </c>
+      <c r="O7" s="17">
+        <f>A13</f>
+        <v>11</v>
+      </c>
+      <c r="P7" s="16">
+        <f>A28</f>
+        <v>26</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>A32</f>
+        <v>30</v>
+      </c>
+      <c r="R7" s="5">
+        <f>A16</f>
+        <v>14</v>
+      </c>
+      <c r="S7" s="17">
+        <f>A12</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="54" t="str">
+        <f>IF(C8,"1","")</f>
+        <v/>
+      </c>
+      <c r="H8" s="54" t="str">
+        <f t="shared" ref="H8:J8" si="1">IF(D8,"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="54" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="16">
+        <f>A21</f>
+        <v>19</v>
+      </c>
+      <c r="M8" s="5">
+        <f>A25</f>
+        <v>23</v>
+      </c>
+      <c r="N8" s="5">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="O8" s="17">
+        <f>A5</f>
+        <v>3</v>
+      </c>
+      <c r="P8" s="16">
+        <f>A20</f>
+        <v>18</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>A24</f>
+        <v>22</v>
+      </c>
+      <c r="R8" s="5">
+        <f>A8</f>
+        <v>6</v>
+      </c>
+      <c r="S8" s="17">
+        <f>A4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="54" t="str">
+        <f t="shared" ref="G9:G17" si="2">IF(C9,"1","")</f>
+        <v/>
+      </c>
+      <c r="H9" s="54" t="str">
+        <f t="shared" ref="H9:H17" si="3">IF(D9,"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="54" t="str">
+        <f t="shared" ref="I9:I17" si="4">IF(E9,"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="47" t="str">
+        <f t="shared" ref="J9:J17" si="5">IF(F9,"1","")</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="21">
+        <f>A19</f>
+        <v>17</v>
+      </c>
+      <c r="M9" s="22">
+        <f>A23</f>
+        <v>21</v>
+      </c>
+      <c r="N9" s="22">
+        <f>A7</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="23">
+        <f>A3</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="21">
+        <f>A18</f>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>A22</f>
+        <v>20</v>
+      </c>
+      <c r="R9" s="22">
+        <f>A6</f>
+        <v>4</v>
+      </c>
+      <c r="S9" s="23">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I10" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J10" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="str">
+        <f>G1</f>
+        <v>_А8_</v>
+      </c>
+      <c r="U10" t="str">
+        <f>I1</f>
+        <v>_А2_</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I11" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J11" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="str">
+        <f>ADDRESS(O11,M11)</f>
+        <v>$G$2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="str">
+        <f>ADDRESS(X11,V11)</f>
+        <v>$I$2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I12" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" ref="L12:S15" ca="1" si="6">INDIRECT(ADDRESS($O$11+L6,$M$11))</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="18">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="20" t="str">
+        <f ca="1">INDIRECT(ADDRESS($O$11+S6,$M$11))</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="18" t="str">
+        <f t="shared" ref="U12:U15" ca="1" si="7">INDIRECT(ADDRESS($X$11+L6,$V$11))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V12" s="19" t="str">
+        <f t="shared" ref="V12:V15" ca="1" si="8">INDIRECT(ADDRESS($X$11+M6,$V$11))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W12" s="19" t="str">
+        <f t="shared" ref="W12:W15" ca="1" si="9">INDIRECT(ADDRESS($X$11+N6,$V$11))</f>
+        <v/>
+      </c>
+      <c r="X12" s="20" t="str">
+        <f t="shared" ref="X12:X15" ca="1" si="10">INDIRECT(ADDRESS($X$11+O6,$V$11))</f>
+        <v/>
+      </c>
+      <c r="Y12" s="18" t="str">
+        <f t="shared" ref="Y12:Y15" ca="1" si="11">INDIRECT(ADDRESS($X$11+P6,$V$11))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z12" s="19" t="str">
+        <f t="shared" ref="Z12:Z15" ca="1" si="12">INDIRECT(ADDRESS($X$11+Q6,$V$11))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA12" s="19" t="str">
+        <f t="shared" ref="AA12:AA15" ca="1" si="13">INDIRECT(ADDRESS($X$11+R6,$V$11))</f>
+        <v/>
+      </c>
+      <c r="AB12" s="20" t="str">
+        <f t="shared" ref="AB12:AB14" ca="1" si="14">INDIRECT(ADDRESS($X$11+S6,$V$11))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I13" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="16">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N13" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="16">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R13" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="5" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="17" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="16">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="5" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="17" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J14" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L14" s="16" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="P14" s="16" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="S14" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="U14" s="16" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W14" s="5" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="17" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="Y14" s="16" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>x</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="5" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="17" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J15" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="21" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="M15" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="N15" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="O15" s="23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="P15" s="21" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="Q15" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="R15" s="22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="S15" s="23" t="str">
+        <f ca="1">INDIRECT(ADDRESS($O$11+S9,$M$11))</f>
+        <v>x</v>
+      </c>
+      <c r="U15" s="21" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="V15" s="22" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>x</v>
+      </c>
+      <c r="W15" s="22" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>x</v>
+      </c>
+      <c r="X15" s="23" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="Y15" s="21" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>x</v>
+      </c>
+      <c r="Z15" s="22" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>x</v>
+      </c>
+      <c r="AA15" s="22" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>x</v>
+      </c>
+      <c r="AB15" s="23" t="str">
+        <f ca="1">INDIRECT(ADDRESS($X$11+S9,$V$11))</f>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="54" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="54" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="59" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="60" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L17" t="str">
+        <f>H1</f>
+        <v>_А4_</v>
+      </c>
+      <c r="U17" t="str">
+        <f>J1</f>
+        <v>_А1_</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H18" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I18" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J18" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="str">
+        <f>ADDRESS(O18,M18)</f>
+        <v>$H$2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18">
+        <v>10</v>
+      </c>
+      <c r="W18" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="str">
+        <f>ADDRESS(X18,V18)</f>
+        <v>$J$2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="G19" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C19,D19,E19,F19)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H19" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C19,D19,E19,F19)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I19" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C19,D19,E19,F19)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J19" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C19,D19,E19,F19)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" ref="L19:S22" ca="1" si="15">INDIRECT(ADDRESS($O$18+L6,$M$18))</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="19" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N19" s="19" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="P19" s="18">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="19" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R19" s="19" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="U19" s="18" t="str">
+        <f t="shared" ref="U19:U22" ca="1" si="16">INDIRECT(ADDRESS($X$18+L6,$V$18))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V19" s="19" t="str">
+        <f t="shared" ref="V19:V22" ca="1" si="17">INDIRECT(ADDRESS($X$18+M6,$V$18))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W19" s="19" t="str">
+        <f t="shared" ref="W19:W22" ca="1" si="18">INDIRECT(ADDRESS($X$18+N6,$V$18))</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="20" t="str">
+        <f t="shared" ref="X19:X22" ca="1" si="19">INDIRECT(ADDRESS($X$18+O6,$V$18))</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="18">
+        <f t="shared" ref="Y19:Y22" ca="1" si="20">INDIRECT(ADDRESS($X$18+P6,$V$18))</f>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="19">
+        <f t="shared" ref="Z19:Z22" ca="1" si="21">INDIRECT(ADDRESS($X$18+Q6,$V$18))</f>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="19" t="str">
+        <f t="shared" ref="AA19:AA22" ca="1" si="22">INDIRECT(ADDRESS($X$18+R6,$V$18))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="20" t="str">
+        <f t="shared" ref="AB19:AB21" ca="1" si="23">INDIRECT(ADDRESS($X$18+S6,$V$18))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C20,D20,E20,F20)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H20" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C20,D20,E20,F20)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I20" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C20,D20,E20,F20)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J20" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C20,D20,E20,F20)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L20" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="17" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="P20" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="5" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="17" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="U20" s="16" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V20" s="5" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W20" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="17" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="5" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AB20" s="17" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17">
+        <v>1</v>
+      </c>
+      <c r="G21" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C21,D21,E21,F21)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H21" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C21,D21,E21,F21)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I21" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C21,D21,E21,F21)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J21" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C21,D21,E21,F21)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L21" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="17" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="P21" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="5" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="17" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="U21" s="16" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>x</v>
+      </c>
+      <c r="V21" s="5" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W21" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="X21" s="17" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>x</v>
+      </c>
+      <c r="Y21" s="16" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>x</v>
+      </c>
+      <c r="Z21" s="5">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v/>
+      </c>
+      <c r="AB21" s="17" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0</v>
+      </c>
+      <c r="G22" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C22,D22,E22,F22)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H22" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C22,D22,E22,F22)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I22" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C22,D22,E22,F22)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J22" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C22,D22,E22,F22)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L22" s="21" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="M22" s="22" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="N22" s="22" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="O22" s="23" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="P22" s="21" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="Q22" s="22" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="R22" s="22" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="S22" s="23" t="str">
+        <f ca="1">INDIRECT(ADDRESS($O$18+S9,$M$18))</f>
+        <v>x</v>
+      </c>
+      <c r="U22" s="21" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>x</v>
+      </c>
+      <c r="V22" s="22" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>x</v>
+      </c>
+      <c r="W22" s="22" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>x</v>
+      </c>
+      <c r="X22" s="23" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>x</v>
+      </c>
+      <c r="Y22" s="21" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>x</v>
+      </c>
+      <c r="Z22" s="22" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>x</v>
+      </c>
+      <c r="AA22" s="22" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>x</v>
+      </c>
+      <c r="AB22" s="23" t="str">
+        <f ca="1">INDIRECT(ADDRESS($X$18+S9,$V$18))</f>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C23,D23,E23,F23)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="H23" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C23,D23,E23,F23)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="I23" s="54" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C23,D23,E23,F23)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="J23" s="47" t="str">
+        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C23,D23,E23,F23)=alph))&gt;0),"x","")</f>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="55">
+        <v>1</v>
+      </c>
+      <c r="H24" s="54">
+        <v>1</v>
+      </c>
+      <c r="I24" s="54">
+        <v>1</v>
+      </c>
+      <c r="J24" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="48">
+        <v>1</v>
+      </c>
+      <c r="C25" s="49">
+        <v>0</v>
+      </c>
+      <c r="D25" s="49">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49">
+        <v>1</v>
+      </c>
+      <c r="F25" s="50">
+        <v>1</v>
+      </c>
+      <c r="G25" s="56">
+        <v>1</v>
+      </c>
+      <c r="H25" s="56">
+        <v>1</v>
+      </c>
+      <c r="I25" s="56">
+        <v>1</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="48">
+        <v>1</v>
+      </c>
+      <c r="C26" s="49">
+        <v>1</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0</v>
+      </c>
+      <c r="E26" s="49">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
+        <v>0</v>
+      </c>
+      <c r="G26" s="56">
+        <v>1</v>
+      </c>
+      <c r="H26" s="56">
+        <v>1</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="48">
+        <v>1</v>
+      </c>
+      <c r="C27" s="49">
+        <v>1</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0</v>
+      </c>
+      <c r="E27" s="49">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
+        <v>1</v>
+      </c>
+      <c r="G27" s="56">
+        <v>1</v>
+      </c>
+      <c r="H27" s="56">
+        <v>1</v>
+      </c>
+      <c r="I27" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="48">
+        <v>1</v>
+      </c>
+      <c r="C28" s="49">
+        <v>1</v>
+      </c>
+      <c r="D28" s="49">
+        <v>0</v>
+      </c>
+      <c r="E28" s="49">
+        <v>1</v>
+      </c>
+      <c r="F28" s="50">
+        <v>0</v>
+      </c>
+      <c r="G28" s="56">
+        <v>1</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="56">
+        <v>1</v>
+      </c>
+      <c r="J28" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="48">
+        <v>1</v>
+      </c>
+      <c r="C29" s="49">
+        <v>1</v>
+      </c>
+      <c r="D29" s="49">
+        <v>0</v>
+      </c>
+      <c r="E29" s="49">
+        <v>1</v>
+      </c>
+      <c r="F29" s="50">
+        <v>1</v>
+      </c>
+      <c r="G29" s="56">
+        <v>1</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="56">
+        <v>1</v>
+      </c>
+      <c r="J29" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="48">
+        <v>1</v>
+      </c>
+      <c r="C30" s="49">
+        <v>1</v>
+      </c>
+      <c r="D30" s="49">
+        <v>1</v>
+      </c>
+      <c r="E30" s="49">
+        <v>0</v>
+      </c>
+      <c r="F30" s="50">
+        <v>0</v>
+      </c>
+      <c r="G30" s="56">
+        <v>1</v>
+      </c>
+      <c r="H30" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="48">
+        <v>1</v>
+      </c>
+      <c r="C31" s="49">
+        <v>1</v>
+      </c>
+      <c r="D31" s="49">
+        <v>1</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
+        <v>1</v>
+      </c>
+      <c r="G31" s="56">
+        <v>1</v>
+      </c>
+      <c r="H31" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="48">
+        <v>1</v>
+      </c>
+      <c r="C32" s="49">
+        <v>1</v>
+      </c>
+      <c r="D32" s="49">
+        <v>1</v>
+      </c>
+      <c r="E32" s="49">
+        <v>1</v>
+      </c>
+      <c r="F32" s="50">
+        <v>0</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="56">
+        <v>1</v>
+      </c>
+      <c r="I32" s="56">
+        <v>1</v>
+      </c>
+      <c r="J32" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="21">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="51">
+        <v>1</v>
+      </c>
+      <c r="C33" s="52">
+        <v>1</v>
+      </c>
+      <c r="D33" s="52">
+        <v>1</v>
+      </c>
+      <c r="E33" s="52">
+        <v>1</v>
+      </c>
+      <c r="F33" s="53">
+        <v>1</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="56">
+        <v>1</v>
+      </c>
+      <c r="I33" s="56">
+        <v>1</v>
+      </c>
+      <c r="J33" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:J33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Projects\theory-of-automata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD97D61-7F40-43DB-86BB-19224BB79A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE6C3E-0AD8-4E4E-8DF7-5F75BDA429C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6D65DE9B-0E5A-4347-A01E-0563EE237CE4}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="alph">'Обратный код'!$K$1:$K$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Обратный код'!$L$10:$AB$22</definedName>
     <definedName name="things">Лист1!$M$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="56">
   <si>
     <t>0_0001</t>
   </si>
@@ -327,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -554,11 +555,296 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -620,6 +906,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3173,7 +3480,7 @@
   <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4900,10 +5207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F691B8AA-9DBD-49F0-B698-B6999047C7B2}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4919,7 +5226,7 @@
     <col min="21" max="28" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>38</v>
       </c>
@@ -4954,7 +5261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>0</v>
       </c>
@@ -4974,26 +5281,26 @@
         <v>0</v>
       </c>
       <c r="G2" s="58" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
+        <f t="shared" ref="G2:G7" si="0">IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="H2" s="58" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
+        <f t="shared" ref="H2:H7" si="1">IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="I2" s="58" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
+        <f t="shared" ref="I2:I7" si="2">IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="J2" s="46" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
+        <f t="shared" ref="J2:J7" si="3">IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C2,D2,E2,F2)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <f>A2+1</f>
         <v>1</v>
@@ -5014,28 +5321,28 @@
         <v>1</v>
       </c>
       <c r="G3" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C3,D3,E3,F3)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="H3" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C3,D3,E3,F3)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="I3" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C3,D3,E3,F3)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="J3" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C3,D3,E3,F3)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
-        <f t="shared" ref="A4:A33" si="0">A3+1</f>
+        <f t="shared" ref="A4:A33" si="4">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="16">
@@ -5054,19 +5361,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C4,D4,E4,F4)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="H4" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C4,D4,E4,F4)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="I4" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C4,D4,E4,F4)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="J4" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C4,D4,E4,F4)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="K4" s="24" t="s">
@@ -5076,40 +5383,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C5,D5,E5,F5)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="H5" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C5,D5,E5,F5)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="I5" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C5,D5,E5,F5)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="J5" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C5,D5,E5,F5)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="K5" s="24" t="s">
@@ -5128,153 +5435,153 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C6,D6,E6,F6)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="H6" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C6,D6,E6,F6)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="I6" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C6,D6,E6,F6)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="J6" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C6,D6,E6,F6)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="73">
         <f>A27</f>
         <v>25</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="74">
         <f>A31</f>
         <v>29</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="74">
         <f>A15</f>
         <v>13</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="75">
         <f>A11</f>
         <v>9</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="73">
         <f>A26</f>
         <v>24</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="74">
         <f>A30</f>
         <v>28</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="74">
         <f>A14</f>
         <v>12</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="75">
         <f>A10</f>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C7,D7,E7,F7)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="H7" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C7,D7,E7,F7)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="I7" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C7,D7,E7,F7)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="J7" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C7,D7,E7,F7)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="76">
         <f>A29</f>
         <v>27</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="77">
         <f>A33</f>
         <v>31</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="77">
         <f>A17</f>
         <v>15</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="78">
         <f>A13</f>
         <v>11</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="76">
         <f>A28</f>
         <v>26</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="77">
         <f>A32</f>
         <v>30</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="77">
         <f>A16</f>
         <v>14</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="78">
         <f>A12</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="16">
@@ -5297,56 +5604,60 @@
         <v/>
       </c>
       <c r="H8" s="54" t="str">
-        <f t="shared" ref="H8:J8" si="1">IF(D8,"1","")</f>
+        <f t="shared" ref="H8:J8" si="5">IF(D8,"1","")</f>
         <v>1</v>
       </c>
       <c r="I8" s="54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J8" s="47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="76">
         <f>A21</f>
         <v>19</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="77">
         <f>A25</f>
         <v>23</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="77">
         <f>A9</f>
         <v>7</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="78">
         <f>A5</f>
         <v>3</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="76">
         <f>A20</f>
         <v>18</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="77">
         <f>A24</f>
         <v>22</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="77">
         <f>A8</f>
         <v>6</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="78">
         <f>A4</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+    </row>
+    <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="16">
@@ -5365,60 +5676,70 @@
         <v>1</v>
       </c>
       <c r="G9" s="54" t="str">
-        <f t="shared" ref="G9:G17" si="2">IF(C9,"1","")</f>
+        <f t="shared" ref="G9:G17" si="6">IF(C9,"1","")</f>
         <v/>
       </c>
       <c r="H9" s="54" t="str">
-        <f t="shared" ref="H9:H17" si="3">IF(D9,"1","")</f>
+        <f t="shared" ref="H9:H17" si="7">IF(D9,"1","")</f>
         <v>1</v>
       </c>
       <c r="I9" s="54" t="str">
-        <f t="shared" ref="I9:I17" si="4">IF(E9,"1","")</f>
+        <f t="shared" ref="I9:I17" si="8">IF(E9,"1","")</f>
         <v>1</v>
       </c>
       <c r="J9" s="47" t="str">
-        <f t="shared" ref="J9:J17" si="5">IF(F9,"1","")</f>
+        <f t="shared" ref="J9:J17" si="9">IF(F9,"1","")</f>
         <v>1</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="79">
         <f>A19</f>
         <v>17</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="80">
         <f>A23</f>
         <v>21</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="80">
         <f>A7</f>
         <v>5</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="81">
         <f>A3</f>
         <v>1</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="79">
         <f>A18</f>
         <v>16</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="80">
         <f>A22</f>
         <v>20</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="80">
         <f>A6</f>
         <v>4</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="81">
         <f>A2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="16">
@@ -5437,19 +5758,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H10" s="54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I10" s="54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J10" s="47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K10" s="24" t="s">
@@ -5459,14 +5780,16 @@
         <f>G1</f>
         <v>_А8_</v>
       </c>
+      <c r="T10" s="5"/>
       <c r="U10" t="str">
-        <f>I1</f>
-        <v>_А2_</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",L10)</f>
+        <v>NOT _А8_</v>
+      </c>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="16">
@@ -5485,19 +5808,19 @@
         <v>1</v>
       </c>
       <c r="G11" s="54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H11" s="54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I11" s="54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J11" s="47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L11" t="s">
@@ -5516,11 +5839,12 @@
         <f>ADDRESS(O11,M11)</f>
         <v>$G$2</v>
       </c>
+      <c r="T11" s="5"/>
       <c r="U11" t="s">
         <v>36</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W11" t="s">
         <v>37</v>
@@ -5530,12 +5854,13 @@
       </c>
       <c r="Y11" t="str">
         <f>ADDRESS(X11,V11)</f>
-        <v>$I$2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+        <v>$G$2</v>
+      </c>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="16">
@@ -5554,392 +5879,400 @@
         <v>0</v>
       </c>
       <c r="G12" s="54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H12" s="54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I12" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L12" s="62">
+        <f t="shared" ref="L12:S15" ca="1" si="10">INDIRECT(ADDRESS($O$11+L6,$M$11))</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="63">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="63" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="64" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="70">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="63">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="63" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="64" t="str">
+        <f ca="1">INDIRECT(ADDRESS($O$11+S6,$M$11))</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="62" t="str">
+        <f ca="1">IF(L12="x","x",IF(OR(L12="1",L12=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="V12" s="63" t="str">
+        <f t="shared" ref="V12:AB12" ca="1" si="11">IF(M12="x","x",IF(OR(M12="1",M12=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="W12" s="63" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="X12" s="64" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Y12" s="70" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="Z12" s="63" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AA12" s="63" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AB12" s="64" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AC12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" ref="L12:S15" ca="1" si="6">INDIRECT(ADDRESS($O$11+L6,$M$11))</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="20" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P12" s="18">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="20" t="str">
-        <f ca="1">INDIRECT(ADDRESS($O$11+S6,$M$11))</f>
-        <v>1</v>
-      </c>
-      <c r="U12" s="18" t="str">
-        <f t="shared" ref="U12:U15" ca="1" si="7">INDIRECT(ADDRESS($X$11+L6,$V$11))</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I13" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="65">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V12" s="19" t="str">
-        <f t="shared" ref="V12:V15" ca="1" si="8">INDIRECT(ADDRESS($X$11+M6,$V$11))</f>
+      <c r="N13" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="66" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="71">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W12" s="19" t="str">
-        <f t="shared" ref="W12:W15" ca="1" si="9">INDIRECT(ADDRESS($X$11+N6,$V$11))</f>
-        <v/>
-      </c>
-      <c r="X12" s="20" t="str">
-        <f t="shared" ref="X12:X15" ca="1" si="10">INDIRECT(ADDRESS($X$11+O6,$V$11))</f>
-        <v/>
-      </c>
-      <c r="Y12" s="18" t="str">
-        <f t="shared" ref="Y12:Y15" ca="1" si="11">INDIRECT(ADDRESS($X$11+P6,$V$11))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Z12" s="19" t="str">
-        <f t="shared" ref="Z12:Z15" ca="1" si="12">INDIRECT(ADDRESS($X$11+Q6,$V$11))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AA12" s="19" t="str">
-        <f t="shared" ref="AA12:AA15" ca="1" si="13">INDIRECT(ADDRESS($X$11+R6,$V$11))</f>
-        <v/>
-      </c>
-      <c r="AB12" s="20" t="str">
-        <f t="shared" ref="AB12:AB14" ca="1" si="14">INDIRECT(ADDRESS($X$11+S6,$V$11))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="54" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I13" s="54" t="str">
+      <c r="R13" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="66" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="65" t="str">
+        <f t="shared" ref="U13:U15" ca="1" si="12">IF(L13="x","x",IF(OR(L13="1",L13=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="V13" s="61" t="str">
+        <f t="shared" ref="V13:V15" ca="1" si="13">IF(M13="x","x",IF(OR(M13="1",M13=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W13" s="61" t="str">
+        <f t="shared" ref="W13:W15" ca="1" si="14">IF(N13="x","x",IF(OR(N13="1",N13=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X13" s="66" t="str">
+        <f t="shared" ref="X13:X15" ca="1" si="15">IF(O13="x","x",IF(OR(O13="1",O13=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="Y13" s="71" t="str">
+        <f t="shared" ref="Y13:Y15" ca="1" si="16">IF(P13="x","x",IF(OR(P13="1",P13=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="Z13" s="61" t="str">
+        <f t="shared" ref="Z13:Z15" ca="1" si="17">IF(Q13="x","x",IF(OR(Q13="1",Q13=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="61" t="str">
+        <f t="shared" ref="AA13:AA15" ca="1" si="18">IF(R13="x","x",IF(OR(R13="1",R13=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="AB13" s="66" t="str">
+        <f t="shared" ref="AB13:AB15" ca="1" si="19">IF(S13="x","x",IF(OR(S13="1",S13=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="AC13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N13" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P13" s="16">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R13" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="16">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W13" s="5" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="17" t="str">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J14" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L14" s="65" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Y13" s="16">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Z13" s="5">
+        <v>x</v>
+      </c>
+      <c r="M14" s="61">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="O14" s="66" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="P14" s="71" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="Q14" s="61">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="61" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="S14" s="66" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="65" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AA13" s="5" t="str">
+        <v>x</v>
+      </c>
+      <c r="V14" s="61" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AB13" s="17" t="str">
+        <v/>
+      </c>
+      <c r="W14" s="61" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="16">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="54" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="54" t="str">
+      <c r="X14" s="66" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="Y14" s="71" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>x</v>
+      </c>
+      <c r="Z14" s="61" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="AA14" s="61" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="66" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>x</v>
+      </c>
+      <c r="AC14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J14" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L14" s="16" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="O14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="P14" s="16" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="5" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="S14" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="U14" s="16" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>x</v>
-      </c>
-      <c r="V14" s="5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="W14" s="5" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="X14" s="17" t="str">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="54" t="str">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J15" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="67" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>x</v>
       </c>
-      <c r="Y14" s="16" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>x</v>
-      </c>
-      <c r="Z14" s="5">
+      <c r="M15" s="68" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="N15" s="68" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="O15" s="69" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="P15" s="72" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="Q15" s="68" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="R15" s="68" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="S15" s="69" t="str">
+        <f ca="1">INDIRECT(ADDRESS($O$11+S9,$M$11))</f>
+        <v>x</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="67" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AA14" s="5" t="str">
+        <v>x</v>
+      </c>
+      <c r="V15" s="68" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="17" t="str">
+        <v>x</v>
+      </c>
+      <c r="W15" s="68" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>x</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="54" t="str">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="54" t="str">
+      <c r="X15" s="69" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="Y15" s="72" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>x</v>
+      </c>
+      <c r="Z15" s="68" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>x</v>
+      </c>
+      <c r="AA15" s="68" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>x</v>
+      </c>
+      <c r="AB15" s="69" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>x</v>
+      </c>
+      <c r="AC15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J15" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="21" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="M15" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="N15" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="O15" s="23" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="P15" s="21" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="Q15" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="R15" s="22" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>x</v>
-      </c>
-      <c r="S15" s="23" t="str">
-        <f ca="1">INDIRECT(ADDRESS($O$11+S9,$M$11))</f>
-        <v>x</v>
-      </c>
-      <c r="U15" s="21" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>x</v>
-      </c>
-      <c r="V15" s="22" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>x</v>
-      </c>
-      <c r="W15" s="22" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>x</v>
-      </c>
-      <c r="X15" s="23" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>x</v>
-      </c>
-      <c r="Y15" s="21" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>x</v>
-      </c>
-      <c r="Z15" s="22" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>x</v>
-      </c>
-      <c r="AA15" s="22" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>x</v>
-      </c>
-      <c r="AB15" s="23" t="str">
-        <f ca="1">INDIRECT(ADDRESS($X$11+S9,$V$11))</f>
-        <v>x</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="16">
@@ -5958,25 +6291,27 @@
         <v>0</v>
       </c>
       <c r="G16" s="54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H16" s="54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I16" s="54" t="str">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="47" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="AC16" s="5"/>
+    </row>
+    <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="21">
@@ -5995,33 +6330,35 @@
         <v>1</v>
       </c>
       <c r="G17" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H17" s="59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I17" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J17" s="60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L17" t="str">
         <f>H1</f>
         <v>_А4_</v>
       </c>
+      <c r="T17" s="5"/>
       <c r="U17" t="str">
-        <f>J1</f>
-        <v>_А1_</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",L17)</f>
+        <v>NOT _А4_</v>
+      </c>
+      <c r="AC17" s="5"/>
+    </row>
+    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="16">
@@ -6040,19 +6377,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
+        <f t="shared" ref="G18:G23" si="20">IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="H18" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
+        <f t="shared" ref="H18:H23" si="21">IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="I18" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
+        <f t="shared" ref="I18:I23" si="22">IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="J18" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
+        <f t="shared" ref="J18:J23" si="23">IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C18,D18,E18,F18)=alph))&gt;0),"x","")</f>
         <v>x</v>
       </c>
       <c r="L18" t="s">
@@ -6071,11 +6408,12 @@
         <f>ADDRESS(O18,M18)</f>
         <v>$H$2</v>
       </c>
+      <c r="T18" s="5"/>
       <c r="U18" t="s">
         <v>36</v>
       </c>
       <c r="V18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W18" t="s">
         <v>37</v>
@@ -6085,12 +6423,13 @@
       </c>
       <c r="Y18" t="str">
         <f>ADDRESS(X18,V18)</f>
-        <v>$J$2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+        <v>$G$2</v>
+      </c>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="16">
@@ -6109,190 +6448,194 @@
         <v>1</v>
       </c>
       <c r="G19" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C19,D19,E19,F19)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="20"/>
         <v>x</v>
       </c>
       <c r="H19" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C19,D19,E19,F19)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="21"/>
         <v>x</v>
       </c>
       <c r="I19" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C19,D19,E19,F19)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="22"/>
         <v>x</v>
       </c>
       <c r="J19" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C19,D19,E19,F19)=alph))&gt;0),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="L19" s="18">
-        <f t="shared" ref="L19:S22" ca="1" si="15">INDIRECT(ADDRESS($O$18+L6,$M$18))</f>
-        <v>1</v>
-      </c>
-      <c r="M19" s="19" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" si="23"/>
+        <v>x</v>
+      </c>
+      <c r="L19" s="62">
+        <f t="shared" ref="L19:S22" ca="1" si="24">INDIRECT(ADDRESS($O$18+L6,$M$18))</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="63" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N19" s="19" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="P19" s="18">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="19" t="str">
-        <f t="shared" ca="1" si="15"/>
+      <c r="N19" s="63" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="64" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="P19" s="70">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="63" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R19" s="19" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="20" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="U19" s="18" t="str">
-        <f t="shared" ref="U19:U22" ca="1" si="16">INDIRECT(ADDRESS($X$18+L6,$V$18))</f>
+      <c r="R19" s="63" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="64" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="62" t="str">
+        <f ca="1">IF(L19="x","x",IF(OR(L19="1",L19=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="V19" s="63" t="str">
+        <f t="shared" ref="V19:V22" ca="1" si="25">IF(M19="x","x",IF(OR(M19="1",M19=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="63" t="str">
+        <f t="shared" ref="W19:W22" ca="1" si="26">IF(N19="x","x",IF(OR(N19="1",N19=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X19" s="64" t="str">
+        <f t="shared" ref="X19:X22" ca="1" si="27">IF(O19="x","x",IF(OR(O19="1",O19=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="70" t="str">
+        <f t="shared" ref="Y19:Y22" ca="1" si="28">IF(P19="x","x",IF(OR(P19="1",P19=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="63" t="str">
+        <f t="shared" ref="Z19:Z22" ca="1" si="29">IF(Q19="x","x",IF(OR(Q19="1",Q19=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="63" t="str">
+        <f t="shared" ref="AA19:AA22" ca="1" si="30">IF(R19="x","x",IF(OR(R19="1",R19=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="64" t="str">
+        <f t="shared" ref="AB19:AB22" ca="1" si="31">IF(S19="x","x",IF(OR(S19="1",S19=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="5"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="54" t="str">
+        <f t="shared" si="20"/>
+        <v>x</v>
+      </c>
+      <c r="H20" s="54" t="str">
+        <f t="shared" si="21"/>
+        <v>x</v>
+      </c>
+      <c r="I20" s="54" t="str">
+        <f t="shared" si="22"/>
+        <v>x</v>
+      </c>
+      <c r="J20" s="47" t="str">
+        <f t="shared" si="23"/>
+        <v>x</v>
+      </c>
+      <c r="L20" s="65" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V19" s="19" t="str">
-        <f t="shared" ref="V19:V22" ca="1" si="17">INDIRECT(ADDRESS($X$18+M6,$V$18))</f>
+      <c r="M20" s="61">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="61" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="66" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="P20" s="71" t="str">
+        <f t="shared" ca="1" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W19" s="19" t="str">
-        <f t="shared" ref="W19:W22" ca="1" si="18">INDIRECT(ADDRESS($X$18+N6,$V$18))</f>
-        <v>1</v>
-      </c>
-      <c r="X19" s="20" t="str">
-        <f t="shared" ref="X19:X22" ca="1" si="19">INDIRECT(ADDRESS($X$18+O6,$V$18))</f>
-        <v>1</v>
-      </c>
-      <c r="Y19" s="18">
-        <f t="shared" ref="Y19:Y22" ca="1" si="20">INDIRECT(ADDRESS($X$18+P6,$V$18))</f>
-        <v>1</v>
-      </c>
-      <c r="Z19" s="19">
-        <f t="shared" ref="Z19:Z22" ca="1" si="21">INDIRECT(ADDRESS($X$18+Q6,$V$18))</f>
-        <v>1</v>
-      </c>
-      <c r="AA19" s="19" t="str">
-        <f t="shared" ref="AA19:AA22" ca="1" si="22">INDIRECT(ADDRESS($X$18+R6,$V$18))</f>
-        <v/>
-      </c>
-      <c r="AB19" s="20" t="str">
-        <f t="shared" ref="AB19:AB21" ca="1" si="23">INDIRECT(ADDRESS($X$18+S6,$V$18))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C20,D20,E20,F20)=alph))&gt;0),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="H20" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C20,D20,E20,F20)=alph))&gt;0),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="I20" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C20,D20,E20,F20)=alph))&gt;0),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="J20" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C20,D20,E20,F20)=alph))&gt;0),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="L20" s="16" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M20" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="P20" s="16" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q20" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="U20" s="16" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V20" s="5" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W20" s="5" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="X20" s="17" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="16">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="Z20" s="5">
-        <f t="shared" ca="1" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AA20" s="5" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AB20" s="17" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q20" s="61">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="61" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="66" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v/>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="65" t="str">
+        <f t="shared" ref="U20:U22" ca="1" si="32">IF(L20="x","x",IF(OR(L20="1",L20=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="V20" s="61" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="W20" s="61" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="X20" s="66" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="71" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="61" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA20" s="61" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AB20" s="66" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="16">
@@ -6311,89 +6654,91 @@
         <v>1</v>
       </c>
       <c r="G21" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C21,D21,E21,F21)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="20"/>
         <v>x</v>
       </c>
       <c r="H21" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C21,D21,E21,F21)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="21"/>
         <v>x</v>
       </c>
       <c r="I21" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C21,D21,E21,F21)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="22"/>
         <v>x</v>
       </c>
       <c r="J21" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C21,D21,E21,F21)=alph))&gt;0),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="L21" s="16" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="M21" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="P21" s="16" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="5" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="U21" s="16" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>x</v>
-      </c>
-      <c r="V21" s="5" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W21" s="5" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="X21" s="17" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>x</v>
-      </c>
-      <c r="Y21" s="16" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>x</v>
-      </c>
-      <c r="Z21" s="5">
-        <f t="shared" ca="1" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AA21" s="5" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AB21" s="17" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>x</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>x</v>
+      </c>
+      <c r="L21" s="65" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="M21" s="61">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="61" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="66" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="P21" s="71" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="Q21" s="61">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="61" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="66" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="65" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v>x</v>
+      </c>
+      <c r="V21" s="61" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="W21" s="61" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v/>
+      </c>
+      <c r="X21" s="66" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>x</v>
+      </c>
+      <c r="Y21" s="71" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>x</v>
+      </c>
+      <c r="Z21" s="61" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA21" s="61" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AB21" s="66" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>x</v>
+      </c>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="16">
@@ -6412,89 +6757,91 @@
         <v>0</v>
       </c>
       <c r="G22" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C22,D22,E22,F22)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="20"/>
         <v>x</v>
       </c>
       <c r="H22" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C22,D22,E22,F22)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="21"/>
         <v>x</v>
       </c>
       <c r="I22" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C22,D22,E22,F22)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="22"/>
         <v>x</v>
       </c>
       <c r="J22" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C22,D22,E22,F22)=alph))&gt;0),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="L22" s="21" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="M22" s="22" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="N22" s="22" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="O22" s="23" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="P22" s="21" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="Q22" s="22" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="R22" s="22" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>x</v>
-      </c>
-      <c r="S22" s="23" t="str">
+        <f t="shared" si="23"/>
+        <v>x</v>
+      </c>
+      <c r="L22" s="67" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="M22" s="68" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="N22" s="68" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="O22" s="69" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="P22" s="72" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="Q22" s="68" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="R22" s="68" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="S22" s="69" t="str">
         <f ca="1">INDIRECT(ADDRESS($O$18+S9,$M$18))</f>
         <v>x</v>
       </c>
-      <c r="U22" s="21" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v>x</v>
-      </c>
-      <c r="V22" s="22" t="str">
-        <f t="shared" ca="1" si="17"/>
-        <v>x</v>
-      </c>
-      <c r="W22" s="22" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="X22" s="23" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v>x</v>
-      </c>
-      <c r="Y22" s="21" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>x</v>
-      </c>
-      <c r="Z22" s="22" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>x</v>
-      </c>
-      <c r="AA22" s="22" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v>x</v>
-      </c>
-      <c r="AB22" s="23" t="str">
-        <f ca="1">INDIRECT(ADDRESS($X$18+S9,$V$18))</f>
-        <v>x</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T22" s="5"/>
+      <c r="U22" s="67" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v>x</v>
+      </c>
+      <c r="V22" s="68" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>x</v>
+      </c>
+      <c r="W22" s="68" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>x</v>
+      </c>
+      <c r="X22" s="69" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>x</v>
+      </c>
+      <c r="Y22" s="72" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>x</v>
+      </c>
+      <c r="Z22" s="68" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>x</v>
+      </c>
+      <c r="AA22" s="68" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>x</v>
+      </c>
+      <c r="AB22" s="69" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>x</v>
+      </c>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="16">
@@ -6513,25 +6860,27 @@
         <v>1</v>
       </c>
       <c r="G23" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C23,D23,E23,F23)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="20"/>
         <v>x</v>
       </c>
       <c r="H23" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C23,D23,E23,F23)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="21"/>
         <v>x</v>
       </c>
       <c r="I23" s="54" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C23,D23,E23,F23)=alph))&gt;0),"x","")</f>
+        <f t="shared" si="22"/>
         <v>x</v>
       </c>
       <c r="J23" s="47" t="str">
-        <f>IF(NOT(SUMPRODUCT(--(_xlfn.TEXTJOIN("", TRUE,C23,D23,E23,F23)=alph))&gt;0),"x","")</f>
-        <v>x</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>x</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="16">
@@ -6561,10 +6910,19 @@
       <c r="J24" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L24" t="str">
+        <f>I1</f>
+        <v>_А2_</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",L24)</f>
+        <v>NOT _А2_</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="48">
@@ -6594,10 +6952,43 @@
       <c r="J25" s="57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="str">
+        <f>ADDRESS(O25,M25)</f>
+        <v>$I$2</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+      <c r="Y25" t="str">
+        <f>ADDRESS(X25,V25)</f>
+        <v>$G$2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="48">
@@ -6627,10 +7018,74 @@
       <c r="J26" s="57">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L26" s="62" t="str">
+        <f t="shared" ref="L26:S29" ca="1" si="33">INDIRECT(ADDRESS($O$25+L6,$M$25))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M26" s="63" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N26" s="63" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="O26" s="64" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="P26" s="70" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q26" s="63" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R26" s="63" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="S26" s="64" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="U26" s="62" t="str">
+        <f ca="1">IF(L26="x","x",IF(OR(L26="1",L26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="V26" s="63" t="str">
+        <f t="shared" ref="V26:V29" ca="1" si="34">IF(M26="x","x",IF(OR(M26="1",M26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W26" s="63" t="str">
+        <f t="shared" ref="W26:W29" ca="1" si="35">IF(N26="x","x",IF(OR(N26="1",N26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="64" t="str">
+        <f t="shared" ref="X26:X29" ca="1" si="36">IF(O26="x","x",IF(OR(O26="1",O26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="Y26" s="70" t="str">
+        <f t="shared" ref="Y26:Y29" ca="1" si="37">IF(P26="x","x",IF(OR(P26="1",P26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="Z26" s="63" t="str">
+        <f t="shared" ref="Z26:Z29" ca="1" si="38">IF(Q26="x","x",IF(OR(Q26="1",Q26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="63" t="str">
+        <f t="shared" ref="AA26:AA29" ca="1" si="39">IF(R26="x","x",IF(OR(R26="1",R26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AB26" s="64" t="str">
+        <f t="shared" ref="AB26:AB29" ca="1" si="40">IF(S26="x","x",IF(OR(S26="1",S26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="48">
@@ -6660,10 +7115,74 @@
       <c r="J27" s="57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L27" s="65">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="61">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="61" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="66" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="P27" s="71">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="61">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="61" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="66" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="65" t="str">
+        <f t="shared" ref="U27:U29" ca="1" si="41">IF(L27="x","x",IF(OR(L27="1",L27=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="V27" s="61" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="W27" s="61" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="X27" s="66" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="Y27" s="71" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="Z27" s="61" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AA27" s="61" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AB27" s="66" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="48">
@@ -6693,10 +7212,74 @@
       <c r="J28" s="57">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L28" s="65" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="M28" s="61">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="61" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="66" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="P28" s="71" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="Q28" s="61">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="R28" s="61" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="66" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="U28" s="65" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="V28" s="61" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="W28" s="61" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="X28" s="66" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>x</v>
+      </c>
+      <c r="Y28" s="71" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>x</v>
+      </c>
+      <c r="Z28" s="61" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AA28" s="61" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AB28" s="66" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="48">
@@ -6726,10 +7309,74 @@
       <c r="J29" s="57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L29" s="67" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="M29" s="68" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="N29" s="68" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="O29" s="69" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="P29" s="72" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="Q29" s="68" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="R29" s="68" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="S29" s="69" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="U29" s="67" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="V29" s="68" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>x</v>
+      </c>
+      <c r="W29" s="68" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>x</v>
+      </c>
+      <c r="X29" s="69" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>x</v>
+      </c>
+      <c r="Y29" s="72" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>x</v>
+      </c>
+      <c r="Z29" s="68" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>x</v>
+      </c>
+      <c r="AA29" s="68" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>x</v>
+      </c>
+      <c r="AB29" s="69" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="48">
@@ -6760,9 +7407,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="48">
@@ -6792,10 +7439,18 @@
       <c r="J31" s="57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L31" t="str">
+        <f>J1</f>
+        <v>_А1_</v>
+      </c>
+      <c r="U31" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",L31)</f>
+        <v>NOT _А1_</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="48">
@@ -6825,10 +7480,42 @@
       <c r="J32" s="57">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32" t="str">
+        <f>ADDRESS(O32,M32)</f>
+        <v>$J$2</v>
+      </c>
+      <c r="U32" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32">
+        <v>7</v>
+      </c>
+      <c r="W32" t="s">
+        <v>37</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32" t="str">
+        <f>ADDRESS(X32,V32)</f>
+        <v>$G$2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="51">
@@ -6857,6 +7544,268 @@
       </c>
       <c r="J33" s="57" t="s">
         <v>55</v>
+      </c>
+      <c r="L33" s="62" t="str">
+        <f t="shared" ref="L33:S36" ca="1" si="42">INDIRECT(ADDRESS($O$32+L6,$M$32))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M33" s="63" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N33" s="63" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="64" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="70">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="63">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="63" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="S33" s="64" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="U33" s="62" t="str">
+        <f ca="1">IF(L33="x","x",IF(OR(L33="1",L33=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="V33" s="63" t="str">
+        <f t="shared" ref="V33:V36" ca="1" si="43">IF(M33="x","x",IF(OR(M33="1",M33=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W33" s="63" t="str">
+        <f t="shared" ref="W33:W36" ca="1" si="44">IF(N33="x","x",IF(OR(N33="1",N33=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X33" s="64" t="str">
+        <f t="shared" ref="X33:X36" ca="1" si="45">IF(O33="x","x",IF(OR(O33="1",O33=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="Y33" s="70" t="str">
+        <f t="shared" ref="Y33:Y36" ca="1" si="46">IF(P33="x","x",IF(OR(P33="1",P33=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="Z33" s="63" t="str">
+        <f t="shared" ref="Z33:Z36" ca="1" si="47">IF(Q33="x","x",IF(OR(Q33="1",Q33=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="AA33" s="63" t="str">
+        <f t="shared" ref="AA33:AA36" ca="1" si="48">IF(R33="x","x",IF(OR(R33="1",R33=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AB33" s="64" t="str">
+        <f t="shared" ref="AB33:AB36" ca="1" si="49">IF(S33="x","x",IF(OR(S33="1",S33=1),"","1"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L34" s="65" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M34" s="61" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N34" s="61" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="66" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="71">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="61">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="61" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="S34" s="66" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="U34" s="65" t="str">
+        <f t="shared" ref="U34:U36" ca="1" si="50">IF(L34="x","x",IF(OR(L34="1",L34=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="V34" s="61" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="W34" s="61" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="X34" s="66" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="Y34" s="71" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="Z34" s="61" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="AA34" s="61" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="AB34" s="66" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L35" s="65" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="M35" s="61" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N35" s="61" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="66" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="P35" s="71" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="Q35" s="61">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="61" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="S35" s="66" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="U35" s="65" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>x</v>
+      </c>
+      <c r="V35" s="61" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="W35" s="61" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="X35" s="66" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>x</v>
+      </c>
+      <c r="Y35" s="71" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v>x</v>
+      </c>
+      <c r="Z35" s="61" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="AA35" s="61" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="AB35" s="66" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="67" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="M36" s="68" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="N36" s="68" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="O36" s="69" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="P36" s="72" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="Q36" s="68" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="R36" s="68" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="S36" s="69" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="U36" s="67" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>x</v>
+      </c>
+      <c r="V36" s="68" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>x</v>
+      </c>
+      <c r="W36" s="68" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v>x</v>
+      </c>
+      <c r="X36" s="69" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>x</v>
+      </c>
+      <c r="Y36" s="72" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v>x</v>
+      </c>
+      <c r="Z36" s="68" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v>x</v>
+      </c>
+      <c r="AA36" s="68" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v>x</v>
+      </c>
+      <c r="AB36" s="69" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v>x</v>
       </c>
     </row>
   </sheetData>
@@ -6866,6 +7815,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Projects\theory-of-automata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE6C3E-0AD8-4E4E-8DF7-5F75BDA429C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E2E5B7-3AD1-4ACA-8C8E-49271A9D8DCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6D65DE9B-0E5A-4347-A01E-0563EE237CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6D65DE9B-0E5A-4347-A01E-0563EE237CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Коррекция" sheetId="2" r:id="rId2"/>
     <sheet name="Обратный код" sheetId="3" r:id="rId3"/>
+    <sheet name="Триггеры" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="alph">'Обратный код'!$K$1:$K$10</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="65">
   <si>
     <t>0_0001</t>
   </si>
@@ -281,6 +282,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>СИ4</t>
+  </si>
+  <si>
+    <t>СИ3</t>
+  </si>
+  <si>
+    <t>СИ2</t>
+  </si>
+  <si>
+    <t>СИ1</t>
   </si>
 </sst>
 </file>
@@ -5209,8 +5237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F691B8AA-9DBD-49F0-B698-B6999047C7B2}">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC40" sqref="L1:AC40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7817,4 +7845,3997 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5554A30-9EC7-48B3-BB62-F6417B38F1E9}">
+  <dimension ref="A1:AS43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AL33" sqref="AL33:AS36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="16" customWidth="1"/>
+    <col min="2" max="9" width="3.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" style="17" customWidth="1"/>
+    <col min="11" max="45" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <f t="shared" ref="A4:A33" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="74">
+        <f>A27</f>
+        <v>25</v>
+      </c>
+      <c r="L6" s="74">
+        <f>A31</f>
+        <v>29</v>
+      </c>
+      <c r="M6" s="74">
+        <f>A15</f>
+        <v>13</v>
+      </c>
+      <c r="N6" s="75">
+        <f>A11</f>
+        <v>9</v>
+      </c>
+      <c r="O6" s="73">
+        <f>A26</f>
+        <v>24</v>
+      </c>
+      <c r="P6" s="74">
+        <f>A30</f>
+        <v>28</v>
+      </c>
+      <c r="Q6" s="74">
+        <f>A14</f>
+        <v>12</v>
+      </c>
+      <c r="R6" s="75">
+        <f>A10</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="77">
+        <f>A29</f>
+        <v>27</v>
+      </c>
+      <c r="L7" s="77">
+        <f>A33</f>
+        <v>31</v>
+      </c>
+      <c r="M7" s="77">
+        <f>A17</f>
+        <v>15</v>
+      </c>
+      <c r="N7" s="78">
+        <f>A13</f>
+        <v>11</v>
+      </c>
+      <c r="O7" s="76">
+        <f>A28</f>
+        <v>26</v>
+      </c>
+      <c r="P7" s="77">
+        <f>A32</f>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="77">
+        <f>A16</f>
+        <v>14</v>
+      </c>
+      <c r="R7" s="78">
+        <f>A12</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="77">
+        <f>A21</f>
+        <v>19</v>
+      </c>
+      <c r="L8" s="77">
+        <f>A25</f>
+        <v>23</v>
+      </c>
+      <c r="M8" s="77">
+        <f>A9</f>
+        <v>7</v>
+      </c>
+      <c r="N8" s="78">
+        <f>A5</f>
+        <v>3</v>
+      </c>
+      <c r="O8" s="76">
+        <f>A20</f>
+        <v>18</v>
+      </c>
+      <c r="P8" s="77">
+        <f>A24</f>
+        <v>22</v>
+      </c>
+      <c r="Q8" s="77">
+        <f>A8</f>
+        <v>6</v>
+      </c>
+      <c r="R8" s="78">
+        <f>A4</f>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="80">
+        <f>A19</f>
+        <v>17</v>
+      </c>
+      <c r="L9" s="80">
+        <f>A23</f>
+        <v>21</v>
+      </c>
+      <c r="M9" s="80">
+        <f>A7</f>
+        <v>5</v>
+      </c>
+      <c r="N9" s="81">
+        <f>A3</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="79">
+        <f>A18</f>
+        <v>16</v>
+      </c>
+      <c r="P9" s="80">
+        <f>A22</f>
+        <v>20</v>
+      </c>
+      <c r="Q9" s="80">
+        <f>A6</f>
+        <v>4</v>
+      </c>
+      <c r="R9" s="81">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <f>B1</f>
+        <v>D5</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",K10)</f>
+        <v>NOT D5</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" t="str">
+        <f>G1</f>
+        <v>СИ4</v>
+      </c>
+      <c r="AK10" s="5"/>
+      <c r="AL10" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",AC10)</f>
+        <v>NOT СИ4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="str">
+        <f>ADDRESS(N11,L11)</f>
+        <v>$B$2</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11">
+        <v>7</v>
+      </c>
+      <c r="V11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11" t="str">
+        <f>ADDRESS(W11,U11)</f>
+        <v>$G$2</v>
+      </c>
+      <c r="AB11" s="5"/>
+      <c r="AC11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="str">
+        <f>ADDRESS(AF11,AD11)</f>
+        <v>$G$2</v>
+      </c>
+      <c r="AK11" s="5"/>
+      <c r="AL11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM11">
+        <v>7</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO11">
+        <v>2</v>
+      </c>
+      <c r="AP11" t="str">
+        <f>ADDRESS(AO11,AM11)</f>
+        <v>$G$2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+K6,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="L12" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+L6,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="M12" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$11+M6,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$11+N6,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+O6,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="P12" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+P6,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="Q12" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$11+Q6,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$11+R6,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="62" t="str">
+        <f ca="1">IF(K12="x","x",IF(OR(K12="1",K12=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U12" s="63" t="str">
+        <f ca="1">IF(L12="x","x",IF(OR(L12="1",L12=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V12" s="63" t="str">
+        <f ca="1">IF(M12="x","x",IF(OR(M12="1",M12=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="64" t="str">
+        <f ca="1">IF(N12="x","x",IF(OR(N12="1",N12=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="70" t="str">
+        <f t="shared" ref="X12:AA15" ca="1" si="1">IF(O12="x","x",IF(OR(O12="1",O12=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="Y12" s="63" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z12" s="63" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="64" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="62" t="str">
+        <f t="shared" ref="AC12:AC15" ca="1" si="2">INDIRECT(ADDRESS($AF$11+K6,$AD$11))</f>
+        <v>x</v>
+      </c>
+      <c r="AD12" s="63" t="str">
+        <f t="shared" ref="AD12:AD15" ca="1" si="3">INDIRECT(ADDRESS($AF$11+L6,$AD$11))</f>
+        <v>x</v>
+      </c>
+      <c r="AE12" s="63">
+        <f t="shared" ref="AE12:AE15" ca="1" si="4">INDIRECT(ADDRESS($AF$11+M6,$AD$11))</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="64">
+        <f t="shared" ref="AF12:AF15" ca="1" si="5">INDIRECT(ADDRESS($AF$11+N6,$AD$11))</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="70" t="str">
+        <f t="shared" ref="AG12:AG15" ca="1" si="6">INDIRECT(ADDRESS($AF$11+O6,$AD$11))</f>
+        <v>x</v>
+      </c>
+      <c r="AH12" s="63" t="str">
+        <f t="shared" ref="AH12:AH15" ca="1" si="7">INDIRECT(ADDRESS($AF$11+P6,$AD$11))</f>
+        <v>x</v>
+      </c>
+      <c r="AI12" s="63">
+        <f t="shared" ref="AI12:AI15" ca="1" si="8">INDIRECT(ADDRESS($AF$11+Q6,$AD$11))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="64">
+        <f t="shared" ref="AJ12:AJ14" ca="1" si="9">INDIRECT(ADDRESS($AF$11+R6,$AD$11))</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="62" t="str">
+        <f ca="1">IF(AC12="x","x",IF(OR(AC12="1",AC12=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AM12" s="63" t="str">
+        <f ca="1">IF(AD12="x","x",IF(OR(AD12="1",AD12=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN12" s="63" t="str">
+        <f ca="1">IF(AE12="x","x",IF(OR(AE12="1",AE12=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO12" s="64" t="str">
+        <f ca="1">IF(AF12="x","x",IF(OR(AF12="1",AF12=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP12" s="70" t="str">
+        <f t="shared" ref="AP12:AP15" ca="1" si="10">IF(AG12="x","x",IF(OR(AG12="1",AG12=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AQ12" s="63" t="str">
+        <f t="shared" ref="AQ12:AQ15" ca="1" si="11">IF(AH12="x","x",IF(OR(AH12="1",AH12=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AR12" s="63" t="str">
+        <f t="shared" ref="AR12:AR15" ca="1" si="12">IF(AI12="x","x",IF(OR(AI12="1",AI12=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AS12" s="64" t="str">
+        <f t="shared" ref="AS12:AS15" ca="1" si="13">IF(AJ12="x","x",IF(OR(AJ12="1",AJ12=1),"","1"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+K7,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="L13" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+L7,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="M13" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$11+M7,$L$11))</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$11+N7,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+O7,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="P13" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+P7,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="Q13" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$11+Q7,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$11+R7,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="65" t="str">
+        <f ca="1">IF(K13="x","x",IF(OR(K13="1",K13=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U13" s="61" t="str">
+        <f ca="1">IF(L13="x","x",IF(OR(L13="1",L13=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V13" s="61" t="str">
+        <f ca="1">IF(M13="x","x",IF(OR(M13="1",M13=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="W13" s="66" t="str">
+        <f ca="1">IF(N13="x","x",IF(OR(N13="1",N13=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="71" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Y13" s="61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z13" s="61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="66" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="65" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>x</v>
+      </c>
+      <c r="AD13" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="AE13" s="61">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="66">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="71" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>x</v>
+      </c>
+      <c r="AH13" s="61" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="AI13" s="61">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="66">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="65" t="str">
+        <f ca="1">IF(AC13="x","x",IF(OR(AC13="1",AC13=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AM13" s="61" t="str">
+        <f ca="1">IF(AD13="x","x",IF(OR(AD13="1",AD13=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN13" s="61" t="str">
+        <f ca="1">IF(AE13="x","x",IF(OR(AE13="1",AE13=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO13" s="66" t="str">
+        <f ca="1">IF(AF13="x","x",IF(OR(AF13="1",AF13=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP13" s="71" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>x</v>
+      </c>
+      <c r="AQ13" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>x</v>
+      </c>
+      <c r="AR13" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AS13" s="66" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$11+K8,$L$11))</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+L8,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="M14" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$11+M8,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$11+N8,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$11+O8,$L$11))</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+P8,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="Q14" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$11+Q8,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$11+R8,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="65" t="str">
+        <f ca="1">IF(K14="x","x",IF(OR(K14="1",K14=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="U14" s="61" t="str">
+        <f ca="1">IF(L14="x","x",IF(OR(L14="1",L14=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V14" s="61" t="str">
+        <f ca="1">IF(M14="x","x",IF(OR(M14="1",M14=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="66" t="str">
+        <f ca="1">IF(N14="x","x",IF(OR(N14="1",N14=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="71" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Y14" s="61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Z14" s="61" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="66" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="65">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="AE14" s="61">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="66">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="71">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="61" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>x</v>
+      </c>
+      <c r="AI14" s="61">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="66">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="65" t="str">
+        <f ca="1">IF(AC14="x","x",IF(OR(AC14="1",AC14=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AM14" s="61" t="str">
+        <f ca="1">IF(AD14="x","x",IF(OR(AD14="1",AD14=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN14" s="61" t="str">
+        <f ca="1">IF(AE14="x","x",IF(OR(AE14="1",AE14=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO14" s="66" t="str">
+        <f ca="1">IF(AF14="x","x",IF(OR(AF14="1",AF14=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP14" s="71" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="61" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>x</v>
+      </c>
+      <c r="AR14" s="61" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AS14" s="66" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$11+K9,$L$11))</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="68" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$11+L9,$L$11))</f>
+        <v>x</v>
+      </c>
+      <c r="M15" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$11+M9,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$11+N9,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$11+O9,$L$11))</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$11+P9,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$11+Q9,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$11+R9,$L$11))</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="67" t="str">
+        <f ca="1">IF(K15="x","x",IF(OR(K15="1",K15=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="U15" s="68" t="str">
+        <f ca="1">IF(L15="x","x",IF(OR(L15="1",L15=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V15" s="68" t="str">
+        <f ca="1">IF(M15="x","x",IF(OR(M15="1",M15=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W15" s="69" t="str">
+        <f ca="1">IF(N15="x","x",IF(OR(N15="1",N15=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="72" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Y15" s="68" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="68" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="69" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="68" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>x</v>
+      </c>
+      <c r="AE15" s="68">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="69">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="72">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="68">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AI15" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="69">
+        <f ca="1">INDIRECT(ADDRESS($AF$11+R9,$AD$11))</f>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="67" t="str">
+        <f ca="1">IF(AC15="x","x",IF(OR(AC15="1",AC15=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AM15" s="68" t="str">
+        <f ca="1">IF(AD15="x","x",IF(OR(AD15="1",AD15=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN15" s="68" t="str">
+        <f ca="1">IF(AE15="x","x",IF(OR(AE15="1",AE15=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="69" t="str">
+        <f ca="1">IF(AF15="x","x",IF(OR(AF15="1",AF15=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP15" s="72" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="68" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v/>
+      </c>
+      <c r="AR15" s="68" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AS15" s="69" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AK16" s="5"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <f>C1</f>
+        <v>D4</v>
+      </c>
+      <c r="S17" s="5"/>
+      <c r="T17" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",K17)</f>
+        <v>NOT D4</v>
+      </c>
+      <c r="AB17" s="5"/>
+      <c r="AC17" t="str">
+        <f>H1</f>
+        <v>СИ3</v>
+      </c>
+      <c r="AK17" s="5"/>
+      <c r="AL17" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",AC17)</f>
+        <v>NOT СИ3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18" t="str">
+        <f>ADDRESS(N18,L18)</f>
+        <v>$C$2</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18" t="str">
+        <f>ADDRESS(W18,U18)</f>
+        <v>$G$2</v>
+      </c>
+      <c r="AB18" s="5"/>
+      <c r="AC18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
+      <c r="AG18" t="str">
+        <f>ADDRESS(AF18,AD18)</f>
+        <v>$H$2</v>
+      </c>
+      <c r="AK18" s="5"/>
+      <c r="AL18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM18">
+        <v>7</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AP18" t="str">
+        <f>ADDRESS(AO18,AM18)</f>
+        <v>$G$2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+K6,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="L19" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+L6,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="M19" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$18+M6,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$18+N6,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+O6,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="P19" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+P6,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="Q19" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$18+Q6,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="R19" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$18+R6,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="62" t="str">
+        <f ca="1">IF(K19="x","x",IF(OR(K19="1",K19=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U19" s="63" t="str">
+        <f ca="1">IF(L19="x","x",IF(OR(L19="1",L19=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V19" s="63" t="str">
+        <f ca="1">IF(M19="x","x",IF(OR(M19="1",M19=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="W19" s="64" t="str">
+        <f ca="1">IF(N19="x","x",IF(OR(N19="1",N19=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X19" s="70" t="str">
+        <f t="shared" ref="X19:AA22" ca="1" si="14">IF(O19="x","x",IF(OR(O19="1",O19=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="Y19" s="63" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>x</v>
+      </c>
+      <c r="Z19" s="63" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AA19" s="64" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="62" t="str">
+        <f t="shared" ref="AC19:AC22" ca="1" si="15">INDIRECT(ADDRESS($AF$18+K6,$AD$18))</f>
+        <v>x</v>
+      </c>
+      <c r="AD19" s="63" t="str">
+        <f t="shared" ref="AD19:AD22" ca="1" si="16">INDIRECT(ADDRESS($AF$18+L6,$AD$18))</f>
+        <v>x</v>
+      </c>
+      <c r="AE19" s="63">
+        <f t="shared" ref="AE19:AE22" ca="1" si="17">INDIRECT(ADDRESS($AF$18+M6,$AD$18))</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="64">
+        <f t="shared" ref="AF19:AF22" ca="1" si="18">INDIRECT(ADDRESS($AF$18+N6,$AD$18))</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="70" t="str">
+        <f t="shared" ref="AG19:AG22" ca="1" si="19">INDIRECT(ADDRESS($AF$18+O6,$AD$18))</f>
+        <v>x</v>
+      </c>
+      <c r="AH19" s="63" t="str">
+        <f t="shared" ref="AH19:AH22" ca="1" si="20">INDIRECT(ADDRESS($AF$18+P6,$AD$18))</f>
+        <v>x</v>
+      </c>
+      <c r="AI19" s="63">
+        <f t="shared" ref="AI19:AI22" ca="1" si="21">INDIRECT(ADDRESS($AF$18+Q6,$AD$18))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="64">
+        <f t="shared" ref="AJ19:AJ21" ca="1" si="22">INDIRECT(ADDRESS($AF$18+R6,$AD$18))</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="62" t="str">
+        <f ca="1">IF(AC19="x","x",IF(OR(AC19="1",AC19=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AM19" s="63" t="str">
+        <f ca="1">IF(AD19="x","x",IF(OR(AD19="1",AD19=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN19" s="63" t="str">
+        <f ca="1">IF(AE19="x","x",IF(OR(AE19="1",AE19=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO19" s="64" t="str">
+        <f ca="1">IF(AF19="x","x",IF(OR(AF19="1",AF19=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP19" s="70" t="str">
+        <f t="shared" ref="AP19:AP22" ca="1" si="23">IF(AG19="x","x",IF(OR(AG19="1",AG19=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AQ19" s="63" t="str">
+        <f t="shared" ref="AQ19:AQ22" ca="1" si="24">IF(AH19="x","x",IF(OR(AH19="1",AH19=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AR19" s="63" t="str">
+        <f t="shared" ref="AR19:AR22" ca="1" si="25">IF(AI19="x","x",IF(OR(AI19="1",AI19=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AS19" s="64" t="str">
+        <f t="shared" ref="AS19:AS22" ca="1" si="26">IF(AJ19="x","x",IF(OR(AJ19="1",AJ19=1),"","1"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+K7,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="L20" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+L7,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="M20" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$18+M7,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$18+N7,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+O7,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="P20" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+P7,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="Q20" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$18+Q7,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$18+R7,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="65" t="str">
+        <f ca="1">IF(K20="x","x",IF(OR(K20="1",K20=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U20" s="61" t="str">
+        <f ca="1">IF(L20="x","x",IF(OR(L20="1",L20=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V20" s="61" t="str">
+        <f ca="1">IF(M20="x","x",IF(OR(M20="1",M20=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="66" t="str">
+        <f ca="1">IF(N20="x","x",IF(OR(N20="1",N20=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X20" s="71" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>x</v>
+      </c>
+      <c r="Y20" s="61" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>x</v>
+      </c>
+      <c r="Z20" s="61" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AA20" s="66" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="65" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>x</v>
+      </c>
+      <c r="AD20" s="61" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>x</v>
+      </c>
+      <c r="AE20" s="61">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="66">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="71" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>x</v>
+      </c>
+      <c r="AH20" s="61" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>x</v>
+      </c>
+      <c r="AI20" s="61">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="66">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="65" t="str">
+        <f ca="1">IF(AC20="x","x",IF(OR(AC20="1",AC20=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AM20" s="61" t="str">
+        <f ca="1">IF(AD20="x","x",IF(OR(AD20="1",AD20=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN20" s="61" t="str">
+        <f ca="1">IF(AE20="x","x",IF(OR(AE20="1",AE20=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO20" s="66" t="str">
+        <f ca="1">IF(AF20="x","x",IF(OR(AF20="1",AF20=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP20" s="71" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>x</v>
+      </c>
+      <c r="AQ20" s="61" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="AR20" s="61" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AS20" s="66" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <v>0</v>
+      </c>
+      <c r="K21" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$18+K8,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+L8,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="M21" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$18+M8,$L$18))</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$18+N8,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$18+O8,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+P8,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="Q21" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$18+Q8,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$18+R8,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="65" t="str">
+        <f ca="1">IF(K21="x","x",IF(OR(K21="1",K21=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="61" t="str">
+        <f ca="1">IF(L21="x","x",IF(OR(L21="1",L21=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V21" s="61" t="str">
+        <f ca="1">IF(M21="x","x",IF(OR(M21="1",M21=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="W21" s="66" t="str">
+        <f ca="1">IF(N21="x","x",IF(OR(N21="1",N21=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="71" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="61" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>x</v>
+      </c>
+      <c r="Z21" s="61" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="66" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="65">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="61" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>x</v>
+      </c>
+      <c r="AE21" s="61">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="66">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="71">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="61" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>x</v>
+      </c>
+      <c r="AI21" s="61">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="66">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="65" t="str">
+        <f ca="1">IF(AC21="x","x",IF(OR(AC21="1",AC21=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="AM21" s="61" t="str">
+        <f ca="1">IF(AD21="x","x",IF(OR(AD21="1",AD21=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN21" s="61" t="str">
+        <f ca="1">IF(AE21="x","x",IF(OR(AE21="1",AE21=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO21" s="66" t="str">
+        <f ca="1">IF(AF21="x","x",IF(OR(AF21="1",AF21=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP21" s="71" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="61" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>x</v>
+      </c>
+      <c r="AR21" s="61" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AS21" s="66" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$18+K9,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="68" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$18+L9,$L$18))</f>
+        <v>x</v>
+      </c>
+      <c r="M22" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$18+M9,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$18+N9,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$18+O9,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$18+P9,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$18+Q9,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$18+R9,$L$18))</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="67" t="str">
+        <f ca="1">IF(K22="x","x",IF(OR(K22="1",K22=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="68" t="str">
+        <f ca="1">IF(L22="x","x",IF(OR(L22="1",L22=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V22" s="68" t="str">
+        <f ca="1">IF(M22="x","x",IF(OR(M22="1",M22=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="69" t="str">
+        <f ca="1">IF(N22="x","x",IF(OR(N22="1",N22=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="72" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="68" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="68" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="69" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="67">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="68" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>x</v>
+      </c>
+      <c r="AE22" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="69">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="72">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="68">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="68">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="69">
+        <f ca="1">INDIRECT(ADDRESS($AF$18+R9,$AD$18))</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="67" t="str">
+        <f ca="1">IF(AC22="x","x",IF(OR(AC22="1",AC22=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AM22" s="68" t="str">
+        <f ca="1">IF(AD22="x","x",IF(OR(AD22="1",AD22=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN22" s="68" t="str">
+        <f ca="1">IF(AE22="x","x",IF(OR(AE22="1",AE22=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO22" s="69" t="str">
+        <f ca="1">IF(AF22="x","x",IF(OR(AF22="1",AF22=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP22" s="72" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="68" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AR22" s="68" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AS22" s="69" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AK23" s="5"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="str">
+        <f>D1</f>
+        <v>D3</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",K24)</f>
+        <v>NOT D3</v>
+      </c>
+      <c r="AC24" t="str">
+        <f>I1</f>
+        <v>СИ2</v>
+      </c>
+      <c r="AK24" s="5"/>
+      <c r="AL24" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",AC24)</f>
+        <v>NOT СИ2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="str">
+        <f>ADDRESS(N25,L25)</f>
+        <v>$D$2</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25" t="str">
+        <f>ADDRESS(W25,U25)</f>
+        <v>$G$2</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD25">
+        <v>9</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF25">
+        <v>2</v>
+      </c>
+      <c r="AG25" t="str">
+        <f>ADDRESS(AF25,AD25)</f>
+        <v>$I$2</v>
+      </c>
+      <c r="AK25" s="5"/>
+      <c r="AL25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM25">
+        <v>7</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
+      </c>
+      <c r="AP25" t="str">
+        <f>ADDRESS(AO25,AM25)</f>
+        <v>$G$2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+K6,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="L26" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+L6,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="M26" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$25+M6,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$25+N6,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+O6,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="P26" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+P6,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="Q26" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$25+Q6,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$25+R6,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="62" t="str">
+        <f ca="1">IF(K26="x","x",IF(OR(K26="1",K26=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U26" s="63" t="str">
+        <f ca="1">IF(L26="x","x",IF(OR(L26="1",L26=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V26" s="63" t="str">
+        <f ca="1">IF(M26="x","x",IF(OR(M26="1",M26=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="W26" s="64" t="str">
+        <f ca="1">IF(N26="x","x",IF(OR(N26="1",N26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="70" t="str">
+        <f t="shared" ref="X26:AA29" ca="1" si="27">IF(O26="x","x",IF(OR(O26="1",O26=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="Y26" s="63" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>x</v>
+      </c>
+      <c r="Z26" s="63" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AA26" s="64" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AC26" s="69" t="str">
+        <f t="shared" ref="AC26:AC29" ca="1" si="28">INDIRECT(ADDRESS($AF$25+K6,$AD$25))</f>
+        <v>x</v>
+      </c>
+      <c r="AD26" s="69" t="str">
+        <f t="shared" ref="AD26:AD29" ca="1" si="29">INDIRECT(ADDRESS($AF$25+L6,$AD$25))</f>
+        <v>x</v>
+      </c>
+      <c r="AE26" s="69">
+        <f t="shared" ref="AE26:AE29" ca="1" si="30">INDIRECT(ADDRESS($AF$25+M6,$AD$25))</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="69">
+        <f t="shared" ref="AF26:AF29" ca="1" si="31">INDIRECT(ADDRESS($AF$25+N6,$AD$25))</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="69" t="str">
+        <f t="shared" ref="AG26:AG29" ca="1" si="32">INDIRECT(ADDRESS($AF$25+O6,$AD$25))</f>
+        <v>x</v>
+      </c>
+      <c r="AH26" s="69" t="str">
+        <f t="shared" ref="AH26:AH29" ca="1" si="33">INDIRECT(ADDRESS($AF$25+P6,$AD$25))</f>
+        <v>x</v>
+      </c>
+      <c r="AI26" s="69">
+        <f t="shared" ref="AI26:AI29" ca="1" si="34">INDIRECT(ADDRESS($AF$25+Q6,$AD$25))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="69">
+        <f t="shared" ref="AJ26:AJ28" ca="1" si="35">INDIRECT(ADDRESS($AF$25+R6,$AD$25))</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="62" t="str">
+        <f ca="1">IF(AC26="x","x",IF(OR(AC26="1",AC26=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AM26" s="63" t="str">
+        <f ca="1">IF(AD26="x","x",IF(OR(AD26="1",AD26=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN26" s="63" t="str">
+        <f ca="1">IF(AE26="x","x",IF(OR(AE26="1",AE26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO26" s="64" t="str">
+        <f ca="1">IF(AF26="x","x",IF(OR(AF26="1",AF26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP26" s="70" t="str">
+        <f t="shared" ref="AP26:AP29" ca="1" si="36">IF(AG26="x","x",IF(OR(AG26="1",AG26=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AQ26" s="63" t="str">
+        <f t="shared" ref="AQ26:AQ29" ca="1" si="37">IF(AH26="x","x",IF(OR(AH26="1",AH26=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AR26" s="63" t="str">
+        <f t="shared" ref="AR26:AR29" ca="1" si="38">IF(AI26="x","x",IF(OR(AI26="1",AI26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AS26" s="64" t="str">
+        <f t="shared" ref="AS26:AS29" ca="1" si="39">IF(AJ26="x","x",IF(OR(AJ26="1",AJ26=1),"","1"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+K7,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="L27" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+L7,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="M27" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$25+M7,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$25+N7,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="O27" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+O7,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="P27" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+P7,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="Q27" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$25+Q7,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$25+R7,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="65" t="str">
+        <f ca="1">IF(K27="x","x",IF(OR(K27="1",K27=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U27" s="61" t="str">
+        <f ca="1">IF(L27="x","x",IF(OR(L27="1",L27=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V27" s="61" t="str">
+        <f ca="1">IF(M27="x","x",IF(OR(M27="1",M27=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="66" t="str">
+        <f ca="1">IF(N27="x","x",IF(OR(N27="1",N27=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X27" s="71" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>x</v>
+      </c>
+      <c r="Y27" s="61" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>x</v>
+      </c>
+      <c r="Z27" s="61" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AA27" s="66" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AC27" s="69" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v>x</v>
+      </c>
+      <c r="AD27" s="69" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>x</v>
+      </c>
+      <c r="AE27" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="69">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="69" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v>x</v>
+      </c>
+      <c r="AH27" s="69" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="AI27" s="69">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="69">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="65" t="str">
+        <f ca="1">IF(AC27="x","x",IF(OR(AC27="1",AC27=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AM27" s="61" t="str">
+        <f ca="1">IF(AD27="x","x",IF(OR(AD27="1",AD27=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN27" s="61" t="str">
+        <f ca="1">IF(AE27="x","x",IF(OR(AE27="1",AE27=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO27" s="66" t="str">
+        <f ca="1">IF(AF27="x","x",IF(OR(AF27="1",AF27=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP27" s="71" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>x</v>
+      </c>
+      <c r="AQ27" s="61" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>x</v>
+      </c>
+      <c r="AR27" s="61" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AS27" s="66" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$25+K8,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+L8,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="M28" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$25+M8,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$25+N8,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="O28" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$25+O8,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+P8,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="Q28" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$25+Q8,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$25+R8,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="65" t="str">
+        <f ca="1">IF(K28="x","x",IF(OR(K28="1",K28=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="U28" s="61" t="str">
+        <f ca="1">IF(L28="x","x",IF(OR(L28="1",L28=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V28" s="61" t="str">
+        <f ca="1">IF(M28="x","x",IF(OR(M28="1",M28=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W28" s="66" t="str">
+        <f ca="1">IF(N28="x","x",IF(OR(N28="1",N28=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X28" s="71" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="61" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>x</v>
+      </c>
+      <c r="Z28" s="61" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AA28" s="66" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AC28" s="69">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="69" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>x</v>
+      </c>
+      <c r="AE28" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="69">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="69">
+        <f t="shared" ca="1" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="AH28" s="69" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>x</v>
+      </c>
+      <c r="AI28" s="69">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="69">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="65" t="str">
+        <f ca="1">IF(AC28="x","x",IF(OR(AC28="1",AC28=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AM28" s="61" t="str">
+        <f ca="1">IF(AD28="x","x",IF(OR(AD28="1",AD28=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN28" s="61" t="str">
+        <f ca="1">IF(AE28="x","x",IF(OR(AE28="1",AE28=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO28" s="66" t="str">
+        <f ca="1">IF(AF28="x","x",IF(OR(AF28="1",AF28=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP28" s="71" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="AQ28" s="61" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>x</v>
+      </c>
+      <c r="AR28" s="61" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AS28" s="66" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$25+K9,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="68" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$25+L9,$L$25))</f>
+        <v>x</v>
+      </c>
+      <c r="M29" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$25+M9,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$25+N9,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$25+O9,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$25+P9,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$25+Q9,$L$25))</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$25+R9,$L$25))</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="67" t="str">
+        <f ca="1">IF(K29="x","x",IF(OR(K29="1",K29=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="U29" s="68" t="str">
+        <f ca="1">IF(L29="x","x",IF(OR(L29="1",L29=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V29" s="68" t="str">
+        <f ca="1">IF(M29="x","x",IF(OR(M29="1",M29=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="W29" s="69" t="str">
+        <f ca="1">IF(N29="x","x",IF(OR(N29="1",N29=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="72" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="68" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="68" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v/>
+      </c>
+      <c r="AA29" s="69" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AC29" s="69">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="69" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>x</v>
+      </c>
+      <c r="AE29" s="69">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="69">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="69">
+        <f t="shared" ca="1" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="69">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="69">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="69">
+        <f ca="1">INDIRECT(ADDRESS($AF$25+R9,$AD$25))</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="67" t="str">
+        <f ca="1">IF(AC29="x","x",IF(OR(AC29="1",AC29=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AM29" s="68" t="str">
+        <f ca="1">IF(AD29="x","x",IF(OR(AD29="1",AD29=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN29" s="68" t="str">
+        <f ca="1">IF(AE29="x","x",IF(OR(AE29="1",AE29=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="69" t="str">
+        <f ca="1">IF(AF29="x","x",IF(OR(AF29="1",AF29=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP29" s="72" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="68" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="AR29" s="68" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AS29" s="69" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" t="str">
+        <f>E1</f>
+        <v>D2</v>
+      </c>
+      <c r="T31" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",K31)</f>
+        <v>NOT D2</v>
+      </c>
+      <c r="AC31" t="str">
+        <f>J1</f>
+        <v>СИ1</v>
+      </c>
+      <c r="AL31" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",AC31)</f>
+        <v>NOT СИ1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="str">
+        <f>ADDRESS(N32,L32)</f>
+        <v>$E$2</v>
+      </c>
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32">
+        <v>7</v>
+      </c>
+      <c r="V32" t="s">
+        <v>37</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32" t="str">
+        <f>ADDRESS(W32,U32)</f>
+        <v>$G$2</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF32">
+        <v>2</v>
+      </c>
+      <c r="AG32" t="str">
+        <f>ADDRESS(AF32,AD32)</f>
+        <v>$J$2</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM32">
+        <v>7</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO32">
+        <v>2</v>
+      </c>
+      <c r="AP32" t="str">
+        <f>ADDRESS(AO32,AM32)</f>
+        <v>$G$2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="21">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+K6,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="L33" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+L6,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="M33" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$32+M6,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="N33" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$32+N6,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+O6,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="P33" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+P6,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="Q33" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$32+Q6,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$32+R6,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="62" t="str">
+        <f ca="1">IF(K33="x","x",IF(OR(K33="1",K33=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U33" s="63" t="str">
+        <f ca="1">IF(L33="x","x",IF(OR(L33="1",L33=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V33" s="63" t="str">
+        <f ca="1">IF(M33="x","x",IF(OR(M33="1",M33=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="W33" s="64" t="str">
+        <f ca="1">IF(N33="x","x",IF(OR(N33="1",N33=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X33" s="70" t="str">
+        <f t="shared" ref="X33:AA36" ca="1" si="40">IF(O33="x","x",IF(OR(O33="1",O33=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="Y33" s="63" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>x</v>
+      </c>
+      <c r="Z33" s="63" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AA33" s="64" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AC33" s="69" t="str">
+        <f t="shared" ref="AC33:AI35" ca="1" si="41">INDIRECT(ADDRESS($AF$32+K6,$AD$32))</f>
+        <v>x</v>
+      </c>
+      <c r="AD33" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AE33" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AH33" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AI33" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="69">
+        <f ca="1">INDIRECT(ADDRESS($AF$32+R6,$AD$32))</f>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="62" t="str">
+        <f ca="1">IF(AC33="x","x",IF(OR(AC33="1",AC33=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AM33" s="63" t="str">
+        <f ca="1">IF(AD33="x","x",IF(OR(AD33="1",AD33=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN33" s="63" t="str">
+        <f ca="1">IF(AE33="x","x",IF(OR(AE33="1",AE33=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO33" s="64" t="str">
+        <f ca="1">IF(AF33="x","x",IF(OR(AF33="1",AF33=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP33" s="70" t="str">
+        <f t="shared" ref="AP33:AP36" ca="1" si="42">IF(AG33="x","x",IF(OR(AG33="1",AG33=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AQ33" s="63" t="str">
+        <f t="shared" ref="AQ33:AQ36" ca="1" si="43">IF(AH33="x","x",IF(OR(AH33="1",AH33=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AR33" s="63" t="str">
+        <f t="shared" ref="AR33:AR36" ca="1" si="44">IF(AI33="x","x",IF(OR(AI33="1",AI33=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AS33" s="64" t="str">
+        <f t="shared" ref="AS33:AS36" ca="1" si="45">IF(AJ33="x","x",IF(OR(AJ33="1",AJ33=1),"","1"))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+K7,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="L34" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+L7,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="M34" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$32+M7,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$32+N7,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+O7,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="P34" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+P7,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="Q34" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$32+Q7,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="R34" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$32+R7,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="T34" s="65" t="str">
+        <f ca="1">IF(K34="x","x",IF(OR(K34="1",K34=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U34" s="61" t="str">
+        <f ca="1">IF(L34="x","x",IF(OR(L34="1",L34=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V34" s="61" t="str">
+        <f ca="1">IF(M34="x","x",IF(OR(M34="1",M34=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="66" t="str">
+        <f ca="1">IF(N34="x","x",IF(OR(N34="1",N34=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X34" s="71" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>x</v>
+      </c>
+      <c r="Y34" s="61" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>x</v>
+      </c>
+      <c r="Z34" s="61" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AA34" s="66" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AC34" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AD34" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AE34" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AH34" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AI34" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="69">
+        <f t="shared" ref="AJ34:AJ35" ca="1" si="46">INDIRECT(ADDRESS($AF$32+R7,$AD$32))</f>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="65" t="str">
+        <f ca="1">IF(AC34="x","x",IF(OR(AC34="1",AC34=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AM34" s="61" t="str">
+        <f ca="1">IF(AD34="x","x",IF(OR(AD34="1",AD34=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN34" s="61" t="str">
+        <f ca="1">IF(AE34="x","x",IF(OR(AE34="1",AE34=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO34" s="66" t="str">
+        <f ca="1">IF(AF34="x","x",IF(OR(AF34="1",AF34=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP34" s="71" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>x</v>
+      </c>
+      <c r="AQ34" s="61" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>x</v>
+      </c>
+      <c r="AR34" s="61" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AS34" s="66" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$32+K8,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+L8,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="M35" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$32+M8,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$32+N8,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$32+O8,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="P35" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+P8,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="Q35" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$32+Q8,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="R35" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$32+R8,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="T35" s="65" t="str">
+        <f ca="1">IF(K35="x","x",IF(OR(K35="1",K35=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="61" t="str">
+        <f ca="1">IF(L35="x","x",IF(OR(L35="1",L35=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V35" s="61" t="str">
+        <f ca="1">IF(M35="x","x",IF(OR(M35="1",M35=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="66" t="str">
+        <f ca="1">IF(N35="x","x",IF(OR(N35="1",N35=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X35" s="71" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="Y35" s="61" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>x</v>
+      </c>
+      <c r="Z35" s="61" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AA35" s="66" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AC35" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AE35" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="69" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>x</v>
+      </c>
+      <c r="AI35" s="69">
+        <f t="shared" ca="1" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="69">
+        <f t="shared" ca="1" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="65" t="str">
+        <f ca="1">IF(AC35="x","x",IF(OR(AC35="1",AC35=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AM35" s="61" t="str">
+        <f ca="1">IF(AD35="x","x",IF(OR(AD35="1",AD35=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN35" s="61" t="str">
+        <f ca="1">IF(AE35="x","x",IF(OR(AE35="1",AE35=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO35" s="66" t="str">
+        <f ca="1">IF(AF35="x","x",IF(OR(AF35="1",AF35=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP35" s="71" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="61" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>x</v>
+      </c>
+      <c r="AR35" s="61" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AS35" s="66" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K36" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$32+K9,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="L36" s="68" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$32+L9,$L$32))</f>
+        <v>x</v>
+      </c>
+      <c r="M36" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$32+M9,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$32+N9,$L$32))</f>
+        <v>1</v>
+      </c>
+      <c r="O36" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$32+O9,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$32+P9,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$32+Q9,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$32+R9,$L$32))</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="67" t="str">
+        <f ca="1">IF(K36="x","x",IF(OR(K36="1",K36=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="U36" s="68" t="str">
+        <f ca="1">IF(L36="x","x",IF(OR(L36="1",L36=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V36" s="68" t="str">
+        <f ca="1">IF(M36="x","x",IF(OR(M36="1",M36=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="W36" s="69" t="str">
+        <f ca="1">IF(N36="x","x",IF(OR(N36="1",N36=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="X36" s="72" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="68" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="Z36" s="68" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="69" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AC36" s="69">
+        <f t="shared" ref="AC36:AI36" ca="1" si="47">INDIRECT(ADDRESS($AF$32+K9,$AD$32))</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="69" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v>x</v>
+      </c>
+      <c r="AE36" s="69">
+        <f t="shared" ca="1" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="69">
+        <f t="shared" ca="1" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="69">
+        <f t="shared" ca="1" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="69">
+        <f t="shared" ca="1" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="69">
+        <f t="shared" ca="1" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="69">
+        <f ca="1">INDIRECT(ADDRESS($AF$32+R9,$AD$32))</f>
+        <v>1</v>
+      </c>
+      <c r="AL36" s="67" t="str">
+        <f ca="1">IF(AC36="x","x",IF(OR(AC36="1",AC36=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AM36" s="68" t="str">
+        <f ca="1">IF(AD36="x","x",IF(OR(AD36="1",AD36=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="AN36" s="68" t="str">
+        <f ca="1">IF(AE36="x","x",IF(OR(AE36="1",AE36=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AO36" s="69" t="str">
+        <f ca="1">IF(AF36="x","x",IF(OR(AF36="1",AF36=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="AP36" s="72" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="68" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AR36" s="68" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AS36" s="69" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="K38" t="str">
+        <f>F1</f>
+        <v>D1</v>
+      </c>
+      <c r="T38" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,"NOT",K38)</f>
+        <v>NOT D1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39" t="s">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="str">
+        <f>ADDRESS(N39,L39)</f>
+        <v>$F$2</v>
+      </c>
+      <c r="T39" t="s">
+        <v>36</v>
+      </c>
+      <c r="U39">
+        <v>7</v>
+      </c>
+      <c r="V39" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39" t="str">
+        <f>ADDRESS(W39,U39)</f>
+        <v>$G$2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="K40" s="70" t="str">
+        <f t="shared" ref="K40:N42" ca="1" si="48">INDIRECT(ADDRESS($N$39+K6,$L$39))</f>
+        <v>x</v>
+      </c>
+      <c r="L40" s="63" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v>x</v>
+      </c>
+      <c r="M40" s="63">
+        <f t="shared" ca="1" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="64">
+        <f t="shared" ca="1" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="70" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$39+O6,$L$39))</f>
+        <v>x</v>
+      </c>
+      <c r="P40" s="63" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$39+P6,$L$39))</f>
+        <v>x</v>
+      </c>
+      <c r="Q40" s="63">
+        <f ca="1">INDIRECT(ADDRESS($N$39+Q6,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="R40" s="64">
+        <f ca="1">INDIRECT(ADDRESS($N$39+R6,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="T40" s="62" t="str">
+        <f ca="1">IF(K40="x","x",IF(OR(K40="1",K40=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U40" s="63" t="str">
+        <f ca="1">IF(L40="x","x",IF(OR(L40="1",L40=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V40" s="63" t="str">
+        <f ca="1">IF(M40="x","x",IF(OR(M40="1",M40=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W40" s="64" t="str">
+        <f ca="1">IF(N40="x","x",IF(OR(N40="1",N40=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X40" s="70" t="str">
+        <f t="shared" ref="X40:X43" ca="1" si="49">IF(O40="x","x",IF(OR(O40="1",O40=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="Y40" s="63" t="str">
+        <f t="shared" ref="Y40:Y43" ca="1" si="50">IF(P40="x","x",IF(OR(P40="1",P40=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="Z40" s="63" t="str">
+        <f t="shared" ref="Z40:Z43" ca="1" si="51">IF(Q40="x","x",IF(OR(Q40="1",Q40=1),"","1"))</f>
+        <v/>
+      </c>
+      <c r="AA40" s="64" t="str">
+        <f t="shared" ref="AA40:AA43" ca="1" si="52">IF(R40="x","x",IF(OR(R40="1",R40=1),"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="K41" s="71" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v>x</v>
+      </c>
+      <c r="L41" s="61" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v>x</v>
+      </c>
+      <c r="M41" s="61">
+        <f t="shared" ca="1" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="66">
+        <f t="shared" ca="1" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="71" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$39+O7,$L$39))</f>
+        <v>x</v>
+      </c>
+      <c r="P41" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$39+P7,$L$39))</f>
+        <v>x</v>
+      </c>
+      <c r="Q41" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$39+Q7,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="R41" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$39+R7,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="T41" s="65" t="str">
+        <f ca="1">IF(K41="x","x",IF(OR(K41="1",K41=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="U41" s="61" t="str">
+        <f ca="1">IF(L41="x","x",IF(OR(L41="1",L41=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V41" s="61" t="str">
+        <f ca="1">IF(M41="x","x",IF(OR(M41="1",M41=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W41" s="66" t="str">
+        <f ca="1">IF(N41="x","x",IF(OR(N41="1",N41=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X41" s="71" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v>x</v>
+      </c>
+      <c r="Y41" s="61" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>x</v>
+      </c>
+      <c r="Z41" s="61" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AA41" s="66" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="K42" s="71">
+        <f t="shared" ca="1" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="61" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v>x</v>
+      </c>
+      <c r="M42" s="61">
+        <f t="shared" ca="1" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="66">
+        <f t="shared" ca="1" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="71">
+        <f ca="1">INDIRECT(ADDRESS($N$39+O8,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="P42" s="61" t="str">
+        <f ca="1">INDIRECT(ADDRESS($N$39+P8,$L$39))</f>
+        <v>x</v>
+      </c>
+      <c r="Q42" s="61">
+        <f ca="1">INDIRECT(ADDRESS($N$39+Q8,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="R42" s="66">
+        <f ca="1">INDIRECT(ADDRESS($N$39+R8,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="T42" s="65" t="str">
+        <f ca="1">IF(K42="x","x",IF(OR(K42="1",K42=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="U42" s="61" t="str">
+        <f ca="1">IF(L42="x","x",IF(OR(L42="1",L42=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V42" s="61" t="str">
+        <f ca="1">IF(M42="x","x",IF(OR(M42="1",M42=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W42" s="66" t="str">
+        <f ca="1">IF(N42="x","x",IF(OR(N42="1",N42=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X42" s="71" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Y42" s="61" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>x</v>
+      </c>
+      <c r="Z42" s="61" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AA42" s="66" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K43" s="72">
+        <f t="shared" ref="K43:N43" ca="1" si="53">INDIRECT(ADDRESS($N$39+K9,$L$39))</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="68" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v>x</v>
+      </c>
+      <c r="M43" s="68">
+        <f t="shared" ca="1" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="69">
+        <f t="shared" ca="1" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="72">
+        <f ca="1">INDIRECT(ADDRESS($N$39+O9,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="P43" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$39+P9,$L$39))</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="68">
+        <f ca="1">INDIRECT(ADDRESS($N$39+Q9,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="R43" s="69">
+        <f ca="1">INDIRECT(ADDRESS($N$39+R9,$L$39))</f>
+        <v>1</v>
+      </c>
+      <c r="T43" s="67" t="str">
+        <f ca="1">IF(K43="x","x",IF(OR(K43="1",K43=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="U43" s="68" t="str">
+        <f ca="1">IF(L43="x","x",IF(OR(L43="1",L43=1),"","1"))</f>
+        <v>x</v>
+      </c>
+      <c r="V43" s="68" t="str">
+        <f ca="1">IF(M43="x","x",IF(OR(M43="1",M43=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W43" s="69" t="str">
+        <f ca="1">IF(N43="x","x",IF(OR(N43="1",N43=1),"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="X43" s="72" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Y43" s="68" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Z43" s="68" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AA43" s="69" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>